--- a/Evaluation/Result.xlsx
+++ b/Evaluation/Result.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\MatchingLetterGame\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62253CD7-EB7F-4FD6-A625-4DF995177199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F4CDCB-23DD-4B0E-8685-A8185AD60535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{078A28CE-FD62-4ACD-A2CB-A56535CB44E0}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12240" firstSheet="1" activeTab="5" xr2:uid="{078A28CE-FD62-4ACD-A2CB-A56535CB44E0}"/>
   </bookViews>
   <sheets>
     <sheet name="letter35+67 overleaf" sheetId="11" r:id="rId1"/>
     <sheet name="letter35+67" sheetId="9" r:id="rId2"/>
-    <sheet name="optimized" sheetId="10" r:id="rId3"/>
+    <sheet name="optimzed 7cub" sheetId="12" r:id="rId3"/>
+    <sheet name="optimized 8cub 35" sheetId="10" r:id="rId4"/>
+    <sheet name="optimized 8 67" sheetId="13" r:id="rId5"/>
+    <sheet name="optimized 9 67" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="84">
   <si>
     <t xml:space="preserve">de </t>
   </si>
@@ -159,6 +162,135 @@
   </si>
   <si>
     <t>9 cub (letter 6,7)</t>
+  </si>
+  <si>
+    <t>Dataset=en Generated 977 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=es Generated 971 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=fr Generated 1076 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=kz Generated 1127 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=ms Generated 986 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=pl Generated 1003 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=ru Generated 1023 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=sl Generated 974 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=tr Generated 987 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=tt Generated 1094 unique cube set files.</t>
+  </si>
+  <si>
+    <t>Dataset=uz Generated 991 unique cube set files.</t>
+  </si>
+  <si>
+    <t>9 cube train_res_app1_it0</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>generated cubes count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg 6letter</t>
+  </si>
+  <si>
+    <t>stdev 6letter</t>
+  </si>
+  <si>
+    <t>avg 7letter</t>
+  </si>
+  <si>
+    <t>stdev 7letter</t>
+  </si>
+  <si>
+    <t>avg total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stdev total</t>
+  </si>
+  <si>
+    <t>max in total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72/977 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74/971 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86/1076 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89/1127 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74/986 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79/1003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79/1023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75/974 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77/987 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85/1094 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76/991 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86/977 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 143/971 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65/1076 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42/1127 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 105/986 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67/1003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38/1023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84/974 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68/987 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45/1094 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84/991 </t>
   </si>
 </sst>
 </file>
@@ -169,13 +301,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,18 +336,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,16 +668,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EE4850-5EFE-4DDB-A540-D1C0ACB834E6}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55:K66"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -546,34 +687,34 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +750,7 @@
         <v>de  &amp; 28.6 \pm 3 &amp; 63 \pm 2.7 &amp; 39.8 \pm 4.9 &amp; 14.2 \pm 1.7 \\</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,7 +786,7 @@
         <v>en  &amp; 44.3 \pm 1.7 &amp; 72 \pm 4.3 &amp; 51.1 \pm 2.9 &amp; 26.2 \pm 1.6 \\</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,7 +822,7 @@
         <v>es  &amp; 37.7 \pm 2.4 &amp; 68.5 \pm 3.1 &amp; 53.6 \pm 2 &amp; 26.7 \pm 4.1 \\</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -717,7 +858,7 @@
         <v>fr  &amp; 20.7 \pm 1.8 &amp; 41.7 \pm 8.2 &amp; 27.9 \pm 2.4 &amp; 14.4 \pm 1.5 \\</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,7 +894,7 @@
         <v>kz  &amp; 10.9 \pm 1.1 &amp; 42.8 \pm 1.6 &amp; 15.8 \pm 4.5 &amp; 3.3 \pm 0.6 \\</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,7 +930,7 @@
         <v>ms  &amp; 38.9 \pm 1.9 &amp; 76.1 \pm 5 &amp; 59.4 \pm 5.4 &amp; 21.5 \pm 1.7 \\</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,7 +966,7 @@
         <v>pl  &amp; 11.5 \pm 0.6 &amp; 48 \pm 6.6 &amp; 19.3 \pm 2.6 &amp; 4.1 \pm 0.4 \\</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,7 +1002,7 @@
         <v>ru  &amp; 12.6 \pm 1.2 &amp; 44.8 \pm 4.3 &amp; 17.7 \pm 2.5 &amp; 3.3 \pm 0.7 \\</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -897,7 +1038,7 @@
         <v>sl  &amp; 29.1 \pm 1.5 &amp; 74 \pm 3.5 &amp; 46.2 \pm 1.2 &amp; 17.1 \pm 2 \\</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -933,7 +1074,7 @@
         <v>tr  &amp; 19.4 \pm 2.6 &amp; 41.6 \pm 7.9 &amp; 31.8 \pm 4.1 &amp; 11.1 \pm 1.6 \\</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,7 +1110,7 @@
         <v>tt  &amp; 10.8 \pm 0.8 &amp; 44.8 \pm 8.2 &amp; 15.4 \pm 2.9 &amp; 3.4 \pm 0.6 \\</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,21 +1146,21 @@
         <v>uz  &amp; 25.5 \pm 1.3 &amp; 69.4 \pm 6.3 &amp; 38.7 \pm 1.8 &amp; 12.2 \pm 1.7 \\</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1196,7 @@
         <v>de  &amp; 41.2 \pm 2.8 &amp; 71.5 \pm 3.8 &amp; 53.5 \pm 3.4 &amp; 27.4 \pm 2.7 \\</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1232,7 @@
         <v>en  &amp; 71.3 \pm 1.4 &amp; 84.8 \pm 2.3 &amp; 77.8 \pm 2.3 &amp; 59.3 \pm 0.9 \\</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1268,7 @@
         <v>es  &amp; 61.8 \pm 1.3 &amp; 81.4 \pm 5.3 &amp; 72.4 \pm 1.3 &amp; 54.6 \pm 1.4 \\</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1304,7 @@
         <v>fr  &amp; 39.9 \pm 1.4 &amp; 72.3 \pm 1.9 &amp; 53.4 \pm 3.1 &amp; 29.1 \pm 1.8 \\</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1340,7 @@
         <v>kz  &amp; 26.8 \pm 2.5 &amp; 47.3 \pm 9 &amp; 38.1 \pm 5.2 &amp; 18.5 \pm 2.8 \\</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1376,7 @@
         <v>ms  &amp; 67.6 \pm 5.6 &amp; 87.4 \pm 2.5 &amp; 80.7 \pm 3.9 &amp; 57.2 \pm 8.1 \\</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1412,7 @@
         <v>pl  &amp; 39.8 \pm 2.2 &amp; 72.5 \pm 5.4 &amp; 54.9 \pm 3.4 &amp; 29.9 \pm 2.4 \\</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1448,7 @@
         <v>ru  &amp; 41.9 \pm 1.9 &amp; 68.4 \pm 4.3 &amp; 52.5 \pm 3.5 &amp; 30.9 \pm 1.6 \\</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1343,7 +1484,7 @@
         <v>sl  &amp; 63.1 \pm 2.2 &amp; 86.3 \pm 4.1 &amp; 73.7 \pm 4.4 &amp; 56.2 \pm 2.1 \\</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1379,7 +1520,7 @@
         <v>tr  &amp; 48.3 \pm 0.6 &amp; 80.3 \pm 2.9 &amp; 64.5 \pm 5 &amp; 37 \pm 2.2 \\</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1556,7 @@
         <v>tt  &amp; 28.4 \pm 1.4 &amp; 67 \pm 2.9 &amp; 41.1 \pm 2.2 &amp; 17 \pm 2.2 \\</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1451,21 +1592,21 @@
         <v>uz  &amp; 60.1 \pm 2 &amp; 84.1 \pm 4.8 &amp; 74.1 \pm 2.4 &amp; 50.2 \pm 1.6 \\</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1642,7 @@
         <v>de  &amp; 76 \pm 1.8 &amp; 92.5 \pm 3 &amp; 80.5 \pm 3.7 &amp; 69.7 \pm 2.1 \\</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1533,11 +1674,11 @@
         <v>0.6</v>
       </c>
       <c r="K30" s="1" t="str">
-        <f t="shared" ref="K30:K66" si="2">A30&amp;" &amp; "&amp;C30&amp;" \pm "&amp;D30&amp;" &amp; "&amp;E30&amp;" \pm "&amp;F30&amp;" &amp; "&amp;G30&amp;" \pm "&amp;H30&amp;" &amp; "&amp;I30&amp;" \pm "&amp;J30&amp;" \\"</f>
+        <f t="shared" ref="K30:K53" si="2">A30&amp;" &amp; "&amp;C30&amp;" \pm "&amp;D30&amp;" &amp; "&amp;E30&amp;" \pm "&amp;F30&amp;" &amp; "&amp;G30&amp;" \pm "&amp;H30&amp;" &amp; "&amp;I30&amp;" \pm "&amp;J30&amp;" \\"</f>
         <v>en  &amp; 90.6 \pm 0.7 &amp; 92.2 \pm 2.7 &amp; 91.7 \pm 1.4 &amp; 88.9 \pm 0.6 \\</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1573,7 +1714,7 @@
         <v>es  &amp; 86.4 \pm 1.3 &amp; 88.6 \pm 4.9 &amp; 88.8 \pm 2.9 &amp; 85 \pm 3.7 \\</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1609,7 +1750,7 @@
         <v>fr  &amp; 58.8 \pm 1.7 &amp; 84.7 \pm 3.4 &amp; 68.6 \pm 1.2 &amp; 50.7 \pm 2 \\</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1786,7 @@
         <v>kz  &amp; 47.7 \pm 2.5 &amp; 78.1 \pm 4.5 &amp; 61.2 \pm 3.5 &amp; 36.7 \pm 3.8 \\</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1822,7 @@
         <v>ms  &amp; 87.8 \pm 3.9 &amp; 97 \pm 1.6 &amp; 92.4 \pm 2.5 &amp; 83.7 \pm 6.1 \\</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1858,7 @@
         <v>pl  &amp; 62.6 \pm 3.4 &amp; 84 \pm 4.1 &amp; 74.6 \pm 2.8 &amp; 55.2 \pm 4.2 \\</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1753,7 +1894,7 @@
         <v>ru  &amp; 62.1 \pm 1.7 &amp; 80.9 \pm 3.9 &amp; 73 \pm 2 &amp; 52.5 \pm 2.6 \\</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1930,7 @@
         <v>sl  &amp; 87.7 \pm 0.9 &amp; 94.2 \pm 0.8 &amp; 93 \pm 2 &amp; 84.8 \pm 0.7 \\</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1825,7 +1966,7 @@
         <v>tr  &amp; 73.8 \pm 2.2 &amp; 90.4 \pm 4.6 &amp; 83.1 \pm 1.5 &amp; 67.5 \pm 2.6 \\</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1861,7 +2002,7 @@
         <v>tt  &amp; 47.3 \pm 1.3 &amp; 77.2 \pm 5.8 &amp; 59.3 \pm 4 &amp; 37.6 \pm 1.8 \\</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -1897,21 +2038,21 @@
         <v>uz  &amp; 78.9 \pm 0.7 &amp; 93.4 \pm 2.2 &amp; 87.2 \pm 2.5 &amp; 72.9 \pm 0.5 \\</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +2088,7 @@
         <v>de  &amp; 90.3 \pm 0.9 &amp; 97 \pm 1.8 &amp; 94.7 \pm 1.6 &amp; 86.4 \pm 1.4 \\</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1983,7 +2124,7 @@
         <v>en  &amp; 94.2 \pm 0.9 &amp; 94.6 \pm 1.7 &amp; 94.4 \pm 1 &amp; 93.8 \pm 1 \\</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2160,7 @@
         <v>es  &amp; 93.7 \pm 2.8 &amp; 93.9 \pm 3.4 &amp; 95.4 \pm 3.1 &amp; 92.9 \pm 2.8 \\</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -2055,7 +2196,7 @@
         <v>fr  &amp; 68.8 \pm 1.4 &amp; 90.5 \pm 0.7 &amp; 77.3 \pm 4.1 &amp; 61.8 \pm 2.1 \\</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2091,7 +2232,7 @@
         <v>kz  &amp; 56.7 \pm 2.1 &amp; 80.8 \pm 6.9 &amp; 69.3 \pm 1.4 &amp; 47.2 \pm 2.4 \\</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2127,7 +2268,7 @@
         <v>ms  &amp; 96.1 \pm 1.2 &amp; 98.2 \pm 1.7 &amp; 97.5 \pm 2.4 &amp; 95 \pm 0.9 \\</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -2163,7 +2304,7 @@
         <v>pl  &amp; 82.9 \pm 1.6 &amp; 93.4 \pm 2 &amp; 89 \pm 1.5 &amp; 79.1 \pm 2.2 \\</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -2199,7 +2340,7 @@
         <v>ru  &amp; 88.1 \pm 1.1 &amp; 94.8 \pm 3.3 &amp; 92.2 \pm 1.4 &amp; 84.5 \pm 1.3 \\</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2376,7 @@
         <v>sl  &amp; 94.8 \pm 0.9 &amp; 99.4 \pm 0.9 &amp; 97.6 \pm 0.8 &amp; 93.1 \pm 1.2 \\</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -2271,7 +2412,7 @@
         <v>tr  &amp; 90.8 \pm 0.4 &amp; 97.6 \pm 1.5 &amp; 95.7 \pm 1.2 &amp; 87.8 \pm 0.9 \\</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -2307,7 +2448,7 @@
         <v>tt  &amp; 69.7 \pm 1.9 &amp; 87.6 \pm 4 &amp; 81 \pm 2.7 &amp; 62.2 \pm 1.6 \\</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -2343,22 +2484,22 @@
         <v>uz  &amp; 95.4 \pm 0.6 &amp; 99 \pm 1.3 &amp; 97.8 \pm 1.5 &amp; 93.7 \pm 1.1 \\</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2524,7 @@
       <c r="H55" s="1">
         <v>10.1</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="2">
         <v>0.10008430480956999</v>
       </c>
       <c r="K55" s="1" t="str">
@@ -2391,7 +2532,7 @@
         <v>de  &amp; 82.9 &amp; 68.3 \pm 8.4 &amp; 76.8 \pm 5.9 &amp; 62.1 \pm 10.1 \\</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -2416,7 +2557,7 @@
       <c r="H56" s="1">
         <v>7.2</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="2">
         <v>0.10811448097229</v>
       </c>
       <c r="K56" s="1" t="str">
@@ -2424,7 +2565,7 @@
         <v>en  &amp; 88.2 &amp; 78.6 \pm 5.4 &amp; 86.3 \pm 3.7 &amp; 72 \pm 7.2 \\</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -2449,7 +2590,7 @@
       <c r="H57" s="1">
         <v>0.8</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="2">
         <v>9.42661762237548E-2</v>
       </c>
       <c r="K57" s="1" t="str">
@@ -2457,7 +2598,7 @@
         <v>es  &amp; 88.2 &amp; 87.4 \pm 0.6 &amp; 92.8 \pm 1.6 &amp; 83.7 \pm 0.8 \\</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -2482,7 +2623,7 @@
       <c r="H58" s="1">
         <v>4.3</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="2">
         <v>0.17126206398010199</v>
       </c>
       <c r="K58" s="1" t="str">
@@ -2490,7 +2631,7 @@
         <v>fr  &amp; 74.4 &amp; 72.4 \pm 2.5 &amp; 82.3 \pm 1.5 &amp; 65 \pm 4.3 \\</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2656,7 @@
       <c r="H59" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="2">
         <v>0.17256212234497001</v>
       </c>
       <c r="K59" s="1" t="str">
@@ -2523,7 +2664,7 @@
         <v>kz  &amp; 46.5 &amp; 45.4 \pm 0.8 &amp; 55.7 \pm 1.1 &amp; 37.7 \pm 2.2 \\</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -2548,7 +2689,7 @@
       <c r="H60" s="1">
         <v>2.4</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="2">
         <v>9.0070247650146401E-2</v>
       </c>
       <c r="K60" s="1" t="str">
@@ -2556,7 +2697,7 @@
         <v>ms  &amp; 83.5 &amp; 81.9 \pm 1.2 &amp; 89.4 \pm 0.7 &amp; 76.2 \pm 2.4 \\</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -2581,7 +2722,7 @@
       <c r="H61" s="1">
         <v>1.2</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="2">
         <v>0.17026257514953599</v>
       </c>
       <c r="K61" s="1" t="str">
@@ -2589,7 +2730,7 @@
         <v>pl  &amp; 84.1 &amp; 82.8 \pm 1 &amp; 89.4 \pm 1.1 &amp; 77.9 \pm 1.2 \\</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2755,7 @@
       <c r="H62" s="1">
         <v>1</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="2">
         <v>0.16099214553832999</v>
       </c>
       <c r="K62" s="1" t="str">
@@ -2622,7 +2763,7 @@
         <v>ru  &amp; 80.2 &amp; 79.1 \pm 1.3 &amp; 86.3 \pm 1.8 &amp; 73.3 \pm 1 \\</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -2647,7 +2788,7 @@
       <c r="H63" s="1">
         <v>0.9</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="2">
         <v>0.120944023132324</v>
       </c>
       <c r="K63" s="1" t="str">
@@ -2655,7 +2796,7 @@
         <v>sl  &amp; 90.5 &amp; 90 \pm 0.5 &amp; 94.9 \pm 0.4 &amp; 85.9 \pm 0.9 \\</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -2680,7 +2821,7 @@
       <c r="H64" s="1">
         <v>1.8</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="2">
         <v>0.161096811294555</v>
       </c>
       <c r="K64" s="1" t="str">
@@ -2688,7 +2829,7 @@
         <v>tr  &amp; 71 &amp; 69 \pm 1.4 &amp; 79.6 \pm 1.1 &amp; 61.8 \pm 1.8 \\</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -2713,7 +2854,7 @@
       <c r="H65" s="1">
         <v>2.4</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="2">
         <v>0.180266618728637</v>
       </c>
       <c r="K65" s="1" t="str">
@@ -2721,7 +2862,7 @@
         <v>tt  &amp; 57.1 &amp; 55.6 \pm 1.9 &amp; 68.2 \pm 2.6 &amp; 46.2 \pm 2.4 \\</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -2746,7 +2887,7 @@
       <c r="H66" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="2">
         <v>0.108833312988281</v>
       </c>
       <c r="K66" s="1" t="str">
@@ -2774,15 +2915,15 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2792,34 +2933,34 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +2996,7 @@
         <v>de  &amp; 28.58 \pm 3.01612333965307 &amp; 62.9741999999999 \pm 2.74789741438795 &amp; 39.7656 \pm 4.92965640790511 &amp; 14.2312 \pm 1.70857695173498 \\</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +3028,7 @@
         <v>1.6051836966528099</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2919,7 +3060,7 @@
         <v>4.1178837768931702</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2951,7 +3092,7 @@
         <v>1.5358560153868499</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +3124,7 @@
         <v>0.62643778621663604</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +3156,7 @@
         <v>1.66327472174623</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3047,7 +3188,7 @@
         <v>0.39427756720361301</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3079,7 +3220,7 @@
         <v>0.71421684382265804</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3111,7 +3252,7 @@
         <v>2.0413173932536801</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3143,7 +3284,7 @@
         <v>1.6143328962763499</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3175,7 +3316,7 @@
         <v>0.55265839358504198</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3207,21 +3348,21 @@
         <v>1.6986888178827799</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3394,7 @@
         <v>2.73471985768195</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -3285,7 +3426,7 @@
         <v>0.89833445887375396</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -3317,7 +3458,7 @@
         <v>1.3571438022553</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -3349,7 +3490,7 @@
         <v>1.804225928203</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -3381,7 +3522,7 @@
         <v>2.7737348106839601</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3413,7 +3554,7 @@
         <v>8.1187493987682604</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3445,7 +3586,7 @@
         <v>2.3773416456201599</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3618,7 @@
         <v>1.6061129163293499</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3509,7 +3650,7 @@
         <v>2.0904428478195598</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -3541,7 +3682,7 @@
         <v>2.1731547344816402</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -3573,7 +3714,7 @@
         <v>2.22368799520076</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -3605,21 +3746,21 @@
         <v>1.55819838274848</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3651,7 +3792,7 @@
         <v>2.0865282888089398</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3683,7 +3824,7 @@
         <v>0.56339968051109102</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3715,7 +3856,7 @@
         <v>3.6851652337446099</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -3747,7 +3888,7 @@
         <v>1.9678661031686</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3779,7 +3920,7 @@
         <v>3.7891036275087502</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3811,7 +3952,7 @@
         <v>6.1364806444736697</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3843,7 +3984,7 @@
         <v>4.2234055216140396</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +4016,7 @@
         <v>2.6453561574956201</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3907,7 +4048,7 @@
         <v>0.71905806441483</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3939,7 +4080,7 @@
         <v>2.6068358598116599</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -3971,7 +4112,7 @@
         <v>1.7946200990738901</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -4003,21 +4144,21 @@
         <v>0.54856330537140097</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -4049,7 +4190,7 @@
         <v>1.41735270839689</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -4081,7 +4222,7 @@
         <v>1.03792639430742</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -4113,7 +4254,7 @@
         <v>2.7553349161218099</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -4145,7 +4286,7 @@
         <v>2.0948249330194599</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -4177,7 +4318,7 @@
         <v>2.4365030679233701</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -4209,7 +4350,7 @@
         <v>0.94289432069559098</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -4241,7 +4382,7 @@
         <v>2.2284635289813401</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -4273,7 +4414,7 @@
         <v>1.27232975285497</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -4305,7 +4446,7 @@
         <v>1.2393105744727499</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -4337,7 +4478,7 @@
         <v>0.919090147918037</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -4369,7 +4510,7 @@
         <v>1.6486857796438901</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -4401,22 +4542,22 @@
         <v>1.07817841751725</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -4441,11 +4582,11 @@
       <c r="H55" s="1">
         <v>10.1317620135887</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="2">
         <v>0.10008430480956999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -4470,11 +4611,11 @@
       <c r="H56" s="1">
         <v>7.1761380769881997</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="2">
         <v>0.10811448097229</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -4499,11 +4640,11 @@
       <c r="H57" s="1">
         <v>0.79963354106740703</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="2">
         <v>9.42661762237548E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -4528,11 +4669,11 @@
       <c r="H58" s="1">
         <v>4.3059560726974402</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="2">
         <v>0.17126206398010199</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -4557,11 +4698,11 @@
       <c r="H59" s="1">
         <v>2.1763197605131399</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="2">
         <v>0.17256212234497001</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4586,11 +4727,11 @@
       <c r="H60" s="1">
         <v>2.3659856719768899</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="2">
         <v>9.0070247650146401E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -4615,11 +4756,11 @@
       <c r="H61" s="1">
         <v>1.16013115637844</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="2">
         <v>0.17026257514953599</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -4644,11 +4785,11 @@
       <c r="H62" s="1">
         <v>1.0413865756768701</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="2">
         <v>0.16099214553832999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4673,11 +4814,11 @@
       <c r="H63" s="1">
         <v>0.88483936395257401</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="2">
         <v>0.120944023132324</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -4702,11 +4843,11 @@
       <c r="H64" s="1">
         <v>1.8460313648472999</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="2">
         <v>0.161096811294555</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -4731,11 +4872,11 @@
       <c r="H65" s="1">
         <v>2.3700910741994701</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="2">
         <v>0.180266618728637</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -4760,7 +4901,7 @@
       <c r="H66" s="1">
         <v>1.07922740884393</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="2">
         <v>0.108833312988281</v>
       </c>
     </row>
@@ -4780,20 +4921,823 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BF06AC-0D87-4F5E-960B-54625790A6A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E777B144-1971-4CAE-8FCC-EC46E98333C5}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>503</v>
+      </c>
+      <c r="C2">
+        <v>438</v>
+      </c>
+      <c r="D2">
+        <v>419</v>
+      </c>
+      <c r="E2">
+        <v>95.564999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.99</v>
+      </c>
+      <c r="H2" t="str">
+        <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;E2&amp;" \pm "&amp;F2&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;E4&amp;" \pm "&amp;F4&amp;" \\"</f>
+        <v>de &amp; 503 &amp; 95.565 \pm 0.99 &amp; 95.2078 \pm 3.34 &amp; 90.3521 \pm 17.85 \\</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>503</v>
+      </c>
+      <c r="C3">
+        <v>1129</v>
+      </c>
+      <c r="D3">
+        <v>1083</v>
+      </c>
+      <c r="E3">
+        <v>95.207800000000006</v>
+      </c>
+      <c r="F3">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>503</v>
+      </c>
+      <c r="C4">
+        <v>2262</v>
+      </c>
+      <c r="D4">
+        <v>2072</v>
+      </c>
+      <c r="E4">
+        <v>90.352099999999993</v>
+      </c>
+      <c r="F4">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>512</v>
+      </c>
+      <c r="C5">
+        <v>1026</v>
+      </c>
+      <c r="D5">
+        <v>953</v>
+      </c>
+      <c r="E5">
+        <v>92.430400000000006</v>
+      </c>
+      <c r="F5">
+        <v>2.46</v>
+      </c>
+      <c r="H5" t="str">
+        <f>A5&amp;" &amp; "&amp;B5&amp;" &amp; "&amp;E5&amp;" \pm "&amp;F5&amp;" &amp; "&amp;E6&amp;" \pm "&amp;F6&amp;" &amp; "&amp;E7&amp;" \pm "&amp;F7&amp;" \\"</f>
+        <v>en &amp; 512 &amp; 92.4304 \pm 2.46 &amp; 92.068 \pm 9.27 &amp; 88.3574 \pm 20.58 \\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>512</v>
+      </c>
+      <c r="C6">
+        <v>2499</v>
+      </c>
+      <c r="D6">
+        <v>2323</v>
+      </c>
+      <c r="E6">
+        <v>92.067999999999998</v>
+      </c>
+      <c r="F6">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>512</v>
+      </c>
+      <c r="C7">
+        <v>2499</v>
+      </c>
+      <c r="D7">
+        <v>2253</v>
+      </c>
+      <c r="E7">
+        <v>88.357399999999998</v>
+      </c>
+      <c r="F7">
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>525</v>
+      </c>
+      <c r="C8">
+        <v>483</v>
+      </c>
+      <c r="D8">
+        <v>406</v>
+      </c>
+      <c r="E8">
+        <v>84.013400000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.53</v>
+      </c>
+      <c r="H8" t="str">
+        <f>A8&amp;" &amp; "&amp;B8&amp;" &amp; "&amp;E8&amp;" \pm "&amp;F8&amp;" &amp; "&amp;E9&amp;" \pm "&amp;F9&amp;" &amp; "&amp;E10&amp;" \pm "&amp;F10&amp;" \\"</f>
+        <v>es &amp; 525 &amp; 84.0134 \pm 0.53 &amp; 87.3912 \pm 4.67 &amp; 86.2918 \pm 30.44 \\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>525</v>
+      </c>
+      <c r="C9">
+        <v>1514</v>
+      </c>
+      <c r="D9">
+        <v>1332</v>
+      </c>
+      <c r="E9">
+        <v>87.391199999999998</v>
+      </c>
+      <c r="F9">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>525</v>
+      </c>
+      <c r="C10">
+        <v>3541</v>
+      </c>
+      <c r="D10">
+        <v>3112</v>
+      </c>
+      <c r="E10">
+        <v>86.291799999999995</v>
+      </c>
+      <c r="F10">
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>618</v>
+      </c>
+      <c r="C11">
+        <v>350</v>
+      </c>
+      <c r="D11">
+        <v>306</v>
+      </c>
+      <c r="E11">
+        <v>84.800700000000006</v>
+      </c>
+      <c r="F11">
+        <v>3.04</v>
+      </c>
+      <c r="H11" t="str">
+        <f>A11&amp;" &amp; "&amp;B11&amp;" &amp; "&amp;E11&amp;" \pm "&amp;F11&amp;" &amp; "&amp;E12&amp;" \pm "&amp;F12&amp;" &amp; "&amp;E13&amp;" \pm "&amp;F13&amp;" \\"</f>
+        <v>fr &amp; 618 &amp; 84.8007 \pm 3.04 &amp; 70.1808 \pm 11.43 &amp; 50.1867 \pm 38.09 \\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>618</v>
+      </c>
+      <c r="C12">
+        <v>991</v>
+      </c>
+      <c r="D12">
+        <v>730</v>
+      </c>
+      <c r="E12">
+        <v>70.180800000000005</v>
+      </c>
+      <c r="F12">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>618</v>
+      </c>
+      <c r="C13">
+        <v>2293</v>
+      </c>
+      <c r="D13">
+        <v>1252</v>
+      </c>
+      <c r="E13">
+        <v>50.186700000000002</v>
+      </c>
+      <c r="F13">
+        <v>38.090000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>647</v>
+      </c>
+      <c r="C14">
+        <v>493</v>
+      </c>
+      <c r="D14">
+        <v>392</v>
+      </c>
+      <c r="E14">
+        <v>76.396600000000007</v>
+      </c>
+      <c r="F14">
+        <v>4.78</v>
+      </c>
+      <c r="H14" t="str">
+        <f>A14&amp;" &amp; "&amp;B14&amp;" &amp; "&amp;E14&amp;" \pm "&amp;F14&amp;" &amp; "&amp;E15&amp;" \pm "&amp;F15&amp;" &amp; "&amp;E16&amp;" \pm "&amp;F16&amp;" \\"</f>
+        <v>kz &amp; 647 &amp; 76.3966 \pm 4.78 &amp; 59.3387 \pm 14.69 &amp; 33.6051 \pm 34.29 \\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>647</v>
+      </c>
+      <c r="C15">
+        <v>1210</v>
+      </c>
+      <c r="D15">
+        <v>765</v>
+      </c>
+      <c r="E15">
+        <v>59.338700000000003</v>
+      </c>
+      <c r="F15">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>647</v>
+      </c>
+      <c r="C16">
+        <v>2835</v>
+      </c>
+      <c r="D16">
+        <v>1067</v>
+      </c>
+      <c r="E16">
+        <v>33.6051</v>
+      </c>
+      <c r="F16">
+        <v>34.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>503</v>
+      </c>
+      <c r="C17">
+        <v>438</v>
+      </c>
+      <c r="D17">
+        <v>419</v>
+      </c>
+      <c r="E17">
+        <v>95.564999999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.99</v>
+      </c>
+      <c r="H17" t="str">
+        <f>A17&amp;" &amp; "&amp;B17&amp;" &amp; "&amp;E17&amp;" \pm "&amp;F17&amp;" &amp; "&amp;E18&amp;" \pm "&amp;F18&amp;" &amp; "&amp;E19&amp;" \pm "&amp;F19&amp;" \\"</f>
+        <v>ms &amp; 503 &amp; 95.565 \pm 0.99 &amp; 95.2078 \pm 3.34 &amp; 90.3521 \pm 17.85 \\</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>503</v>
+      </c>
+      <c r="C18">
+        <v>1129</v>
+      </c>
+      <c r="D18">
+        <v>1083</v>
+      </c>
+      <c r="E18">
+        <v>95.207800000000006</v>
+      </c>
+      <c r="F18">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>503</v>
+      </c>
+      <c r="C19">
+        <v>2262</v>
+      </c>
+      <c r="D19">
+        <v>2072</v>
+      </c>
+      <c r="E19">
+        <v>90.352099999999993</v>
+      </c>
+      <c r="F19">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>350</v>
+      </c>
+      <c r="D20">
+        <v>297</v>
+      </c>
+      <c r="E20">
+        <v>83.366100000000003</v>
+      </c>
+      <c r="F20">
+        <v>2.12</v>
+      </c>
+      <c r="H20" t="str">
+        <f>A20&amp;" &amp; "&amp;B20&amp;" &amp; "&amp;E20&amp;" \pm "&amp;F20&amp;" &amp; "&amp;E21&amp;" \pm "&amp;F21&amp;" &amp; "&amp;E22&amp;" \pm "&amp;F22&amp;" \\"</f>
+        <v>pl &amp; 64 &amp; 83.3661 \pm 2.12 &amp; 75.8046 \pm 9.52 &amp; 56.0571 \pm 28.64 \\</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>1274</v>
+      </c>
+      <c r="D21">
+        <v>986</v>
+      </c>
+      <c r="E21">
+        <v>75.804599999999994</v>
+      </c>
+      <c r="F21">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>3094</v>
+      </c>
+      <c r="D22">
+        <v>1794</v>
+      </c>
+      <c r="E22">
+        <v>56.057099999999998</v>
+      </c>
+      <c r="F22">
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>617</v>
+      </c>
+      <c r="C23">
+        <v>516</v>
+      </c>
+      <c r="D23">
+        <v>450</v>
+      </c>
+      <c r="E23">
+        <v>84.762200000000007</v>
+      </c>
+      <c r="F23">
+        <v>3.66</v>
+      </c>
+      <c r="H23" t="str">
+        <f>A23&amp;" &amp; "&amp;B23&amp;" &amp; "&amp;E23&amp;" \pm "&amp;F23&amp;" &amp; "&amp;E24&amp;" \pm "&amp;F24&amp;" &amp; "&amp;E25&amp;" \pm "&amp;F25&amp;" \\"</f>
+        <v>ru &amp; 617 &amp; 84.7622 \pm 3.66 &amp; 76.7257 \pm 12.66 &amp; 56.8196 \pm 45.53 \\</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>617</v>
+      </c>
+      <c r="C24">
+        <v>1285</v>
+      </c>
+      <c r="D24">
+        <v>1030</v>
+      </c>
+      <c r="E24">
+        <v>76.725700000000003</v>
+      </c>
+      <c r="F24">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>617</v>
+      </c>
+      <c r="C25">
+        <v>2507</v>
+      </c>
+      <c r="D25">
+        <v>1550</v>
+      </c>
+      <c r="E25">
+        <v>56.819600000000001</v>
+      </c>
+      <c r="F25">
+        <v>45.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>544</v>
+      </c>
+      <c r="C26">
+        <v>515</v>
+      </c>
+      <c r="D26">
+        <v>502</v>
+      </c>
+      <c r="E26">
+        <v>95.415800000000004</v>
+      </c>
+      <c r="F26">
+        <v>2.39</v>
+      </c>
+      <c r="H26" t="str">
+        <f>A26&amp;" &amp; "&amp;B26&amp;" &amp; "&amp;E26&amp;" \pm "&amp;F26&amp;" &amp; "&amp;E27&amp;" \pm "&amp;F27&amp;" &amp; "&amp;E28&amp;" \pm "&amp;F28&amp;" \\"</f>
+        <v>sl &amp; 544 &amp; 95.4158 \pm 2.39 &amp; 93.3322 \pm 8.04 &amp; 84.7951 \pm 45.96 \\</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>544</v>
+      </c>
+      <c r="C27">
+        <v>1598</v>
+      </c>
+      <c r="D27">
+        <v>1516</v>
+      </c>
+      <c r="E27">
+        <v>93.3322</v>
+      </c>
+      <c r="F27">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>544</v>
+      </c>
+      <c r="C28">
+        <v>4167</v>
+      </c>
+      <c r="D28">
+        <v>3657</v>
+      </c>
+      <c r="E28">
+        <v>84.795100000000005</v>
+      </c>
+      <c r="F28">
+        <v>45.96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>578</v>
+      </c>
+      <c r="C29">
+        <v>417</v>
+      </c>
+      <c r="D29">
+        <v>394</v>
+      </c>
+      <c r="E29">
+        <v>91.198499999999996</v>
+      </c>
+      <c r="F29">
+        <v>2.99</v>
+      </c>
+      <c r="H29" t="str">
+        <f>A29&amp;" &amp; "&amp;B29&amp;" &amp; "&amp;E29&amp;" \pm "&amp;F29&amp;" &amp; "&amp;E30&amp;" \pm "&amp;F30&amp;" &amp; "&amp;E31&amp;" \pm "&amp;F31&amp;" \\"</f>
+        <v>tr &amp; 578 &amp; 91.1985 \pm 2.99 &amp; 85.3045 \pm 7.7 &amp; 69.5202 \pm 32.14 \\</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>578</v>
+      </c>
+      <c r="C30">
+        <v>1151</v>
+      </c>
+      <c r="D30">
+        <v>1001</v>
+      </c>
+      <c r="E30">
+        <v>85.304500000000004</v>
+      </c>
+      <c r="F30">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>578</v>
+      </c>
+      <c r="C31">
+        <v>2824</v>
+      </c>
+      <c r="D31">
+        <v>2066</v>
+      </c>
+      <c r="E31">
+        <v>69.520200000000003</v>
+      </c>
+      <c r="F31">
+        <v>32.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>671</v>
+      </c>
+      <c r="C32">
+        <v>403</v>
+      </c>
+      <c r="D32">
+        <v>323</v>
+      </c>
+      <c r="E32">
+        <v>76.102500000000006</v>
+      </c>
+      <c r="F32">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="H32" t="str">
+        <f>A32&amp;" &amp; "&amp;B32&amp;" &amp; "&amp;E32&amp;" \pm "&amp;F32&amp;" &amp; "&amp;E33&amp;" \pm "&amp;F33&amp;" &amp; "&amp;E34&amp;" \pm "&amp;F34&amp;" \\"</f>
+        <v>tt &amp; 671 &amp; 76.1025 \pm 4.23 &amp; 59.9938 \pm 11.13 &amp; 36.9983 \pm 27.16 \\</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>671</v>
+      </c>
+      <c r="C33">
+        <v>1089</v>
+      </c>
+      <c r="D33">
+        <v>701</v>
+      </c>
+      <c r="E33">
+        <v>59.9938</v>
+      </c>
+      <c r="F33">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>671</v>
+      </c>
+      <c r="C34">
+        <v>2574</v>
+      </c>
+      <c r="D34">
+        <v>1030</v>
+      </c>
+      <c r="E34">
+        <v>36.9983</v>
+      </c>
+      <c r="F34">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>577</v>
+      </c>
+      <c r="C35">
+        <v>518</v>
+      </c>
+      <c r="D35">
+        <v>496</v>
+      </c>
+      <c r="E35">
+        <v>94.009399999999999</v>
+      </c>
+      <c r="F35">
+        <v>2.82</v>
+      </c>
+      <c r="H35" t="str">
+        <f>A35&amp;" &amp; "&amp;B35&amp;" &amp; "&amp;E35&amp;" \pm "&amp;F35&amp;" &amp; "&amp;E36&amp;" \pm "&amp;F36&amp;" &amp; "&amp;E37&amp;" \pm "&amp;F37&amp;" \\"</f>
+        <v>uz &amp; 577 &amp; 94.0094 \pm 2.82 &amp; 87.6434 \pm 10.84 &amp; 73.9281 \pm 57.88 \\</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>577</v>
+      </c>
+      <c r="C36">
+        <v>1165</v>
+      </c>
+      <c r="D36">
+        <v>1051</v>
+      </c>
+      <c r="E36">
+        <v>87.6434</v>
+      </c>
+      <c r="F36">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>577</v>
+      </c>
+      <c r="C37">
+        <v>2875</v>
+      </c>
+      <c r="D37">
+        <v>2299</v>
+      </c>
+      <c r="E37">
+        <v>73.928100000000001</v>
+      </c>
+      <c r="F37">
+        <v>57.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BF06AC-0D87-4F5E-960B-54625790A6A5}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -4806,14 +5750,14 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4821,26 +5765,26 @@
         <v>790</v>
       </c>
       <c r="C2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="D2">
-        <v>427</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.96</v>
+        <v>412</v>
+      </c>
+      <c r="E2" s="3">
+        <v>96.825000000000003</v>
       </c>
       <c r="F2" s="1">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G2">
         <v>1.2</v>
       </c>
       <c r="H2" t="str">
         <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;E2&amp;" \pm "&amp;F2&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;E4&amp;" \pm "&amp;F4&amp;" \\"</f>
-        <v>de &amp; 790 &amp; 0.96 \pm 1.15 &amp; 0.93 \pm 3.67 &amp; 0.86 \pm 16.98 \\</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>de &amp; 790 &amp; 96.825 \pm 1.09 &amp; 93.3993 \pm 3.68 &amp; 86.2939 \pm 16.98 \\</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4848,22 +5792,22 @@
         <v>790</v>
       </c>
       <c r="C3">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D3">
-        <v>872</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.93</v>
+        <v>870</v>
+      </c>
+      <c r="E3" s="3">
+        <v>93.399299999999997</v>
       </c>
       <c r="F3" s="1">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="G3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4871,13 +5815,13 @@
         <v>790</v>
       </c>
       <c r="C4">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D4">
-        <v>1567</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.86</v>
+        <v>1566</v>
+      </c>
+      <c r="E4" s="3">
+        <v>86.293899999999994</v>
       </c>
       <c r="F4" s="1">
         <v>16.98</v>
@@ -4886,7 +5830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4899,8 +5843,8 @@
       <c r="D5">
         <v>970</v>
       </c>
-      <c r="E5" s="5">
-        <v>0.94</v>
+      <c r="E5" s="3">
+        <v>94.452399999999997</v>
       </c>
       <c r="F5" s="1">
         <v>0.55000000000000004</v>
@@ -4910,10 +5854,10 @@
       </c>
       <c r="H5" t="str">
         <f>A5&amp;" &amp; "&amp;B5&amp;" &amp; "&amp;E5&amp;" \pm "&amp;F5&amp;" &amp; "&amp;E6&amp;" \pm "&amp;F6&amp;" &amp; "&amp;E7&amp;" \pm "&amp;F7&amp;" \\"</f>
-        <v>en &amp; 720 &amp; 0.94 \pm 0.55 &amp; 0.94 \pm 7.25 &amp; 0.94 \pm 17.04 \\</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>en &amp; 720 &amp; 94.4524 \pm 0.55 &amp; 94.2366 \pm 7.25 &amp; 93.5223 \pm 17.04 \\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4926,8 +5870,8 @@
       <c r="D6">
         <v>2375</v>
       </c>
-      <c r="E6" s="5">
-        <v>0.94</v>
+      <c r="E6" s="3">
+        <v>94.236599999999996</v>
       </c>
       <c r="F6" s="1">
         <v>7.25</v>
@@ -4936,7 +5880,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4949,8 +5893,8 @@
       <c r="D7">
         <v>2370</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.94</v>
+      <c r="E7" s="3">
+        <v>93.522300000000001</v>
       </c>
       <c r="F7" s="1">
         <v>17.04</v>
@@ -4959,7 +5903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4972,8 +5916,8 @@
       <c r="D8">
         <v>437</v>
       </c>
-      <c r="E8" s="5">
-        <v>0.9</v>
+      <c r="E8" s="3">
+        <v>90.462999999999994</v>
       </c>
       <c r="F8" s="1">
         <v>0.28000000000000003</v>
@@ -4983,10 +5927,10 @@
       </c>
       <c r="H8" t="str">
         <f>A8&amp;" &amp; "&amp;B8&amp;" &amp; "&amp;E8&amp;" \pm "&amp;F8&amp;" &amp; "&amp;E9&amp;" \pm "&amp;F9&amp;" &amp; "&amp;E10&amp;" \pm "&amp;F10&amp;" \\"</f>
-        <v>es &amp; 740 &amp; 0.9 \pm 0.28 &amp; 0.93 \pm 3.03 &amp; 0.91 \pm 26.14 \\</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>es &amp; 740 &amp; 90.463 \pm 0.28 &amp; 92.9928 \pm 3.03 &amp; 91.459 \pm 26.14 \\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4999,8 +5943,8 @@
       <c r="D9">
         <v>1413</v>
       </c>
-      <c r="E9" s="5">
-        <v>0.93</v>
+      <c r="E9" s="3">
+        <v>92.992800000000003</v>
       </c>
       <c r="F9" s="1">
         <v>3.03</v>
@@ -5009,7 +5953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5022,8 +5966,8 @@
       <c r="D10">
         <v>3302</v>
       </c>
-      <c r="E10" s="5">
-        <v>0.91</v>
+      <c r="E10" s="3">
+        <v>91.459000000000003</v>
       </c>
       <c r="F10" s="1">
         <v>26.14</v>
@@ -5032,7 +5976,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5045,8 +5989,8 @@
       <c r="D11">
         <v>322</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.89</v>
+      <c r="E11" s="3">
+        <v>89.368200000000002</v>
       </c>
       <c r="F11" s="1">
         <v>2.95</v>
@@ -5056,10 +6000,10 @@
       </c>
       <c r="H11" t="str">
         <f>A11&amp;" &amp; "&amp;B11&amp;" &amp; "&amp;E11&amp;" \pm "&amp;F11&amp;" &amp; "&amp;E12&amp;" \pm "&amp;F12&amp;" &amp; "&amp;E13&amp;" \pm "&amp;F13&amp;" \\"</f>
-        <v>fr &amp; 861 &amp; 0.89 \pm 2.95 &amp; 0.75 \pm 11.28 &amp; 0.61 \pm 35.01 \\</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>fr &amp; 861 &amp; 89.3682 \pm 2.95 &amp; 75.2957 \pm 11.28 &amp; 60.5234 \pm 35.01 \\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5072,8 +6016,8 @@
       <c r="D12">
         <v>782</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.75</v>
+      <c r="E12" s="3">
+        <v>75.295699999999997</v>
       </c>
       <c r="F12" s="1">
         <v>11.28</v>
@@ -5082,7 +6026,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -5095,8 +6039,8 @@
       <c r="D13">
         <v>1476</v>
       </c>
-      <c r="E13" s="5">
-        <v>0.61</v>
+      <c r="E13" s="3">
+        <v>60.523400000000002</v>
       </c>
       <c r="F13" s="1">
         <v>35.01</v>
@@ -5105,7 +6049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5118,8 +6062,8 @@
       <c r="D14">
         <v>427</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.84</v>
+      <c r="E14" s="3">
+        <v>83.772800000000004</v>
       </c>
       <c r="F14" s="1">
         <v>4.03</v>
@@ -5129,10 +6073,10 @@
       </c>
       <c r="H14" t="str">
         <f>A14&amp;" &amp; "&amp;B14&amp;" &amp; "&amp;E14&amp;" \pm "&amp;F14&amp;" &amp; "&amp;E15&amp;" \pm "&amp;F15&amp;" &amp; "&amp;E16&amp;" \pm "&amp;F16&amp;" \\"</f>
-        <v>kz &amp; 892 &amp; 0.84 \pm 4.03 &amp; 0.72 \pm 11.73 &amp; 0.48 \pm 28.04 \\</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>kz &amp; 892 &amp; 83.7728 \pm 4.03 &amp; 71.6542 \pm 11.73 &amp; 48.1643 \pm 28.04 \\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5145,8 +6089,8 @@
       <c r="D15">
         <v>907</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.72</v>
+      <c r="E15" s="3">
+        <v>71.654200000000003</v>
       </c>
       <c r="F15" s="1">
         <v>11.73</v>
@@ -5155,7 +6099,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -5168,8 +6112,8 @@
       <c r="D16">
         <v>1456</v>
       </c>
-      <c r="E16" s="5">
-        <v>0.48</v>
+      <c r="E16" s="3">
+        <v>48.164299999999997</v>
       </c>
       <c r="F16" s="1">
         <v>28.04</v>
@@ -5178,7 +6122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5191,8 +6135,8 @@
       <c r="D17">
         <v>421</v>
       </c>
-      <c r="E17" s="5">
-        <v>0.96</v>
+      <c r="E17" s="3">
+        <v>95.915099999999995</v>
       </c>
       <c r="F17" s="1">
         <v>0.31</v>
@@ -5202,10 +6146,10 @@
       </c>
       <c r="H17" t="str">
         <f>A17&amp;" &amp; "&amp;B17&amp;" &amp; "&amp;E17&amp;" \pm "&amp;F17&amp;" &amp; "&amp;E18&amp;" \pm "&amp;F18&amp;" &amp; "&amp;E19&amp;" \pm "&amp;F19&amp;" \\"</f>
-        <v>ms &amp; 74 &amp; 0.96 \pm 0.31 &amp; 0.97 \pm 1.03 &amp; 0.95 \pm 7.45 \\</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ms &amp; 74 &amp; 95.9151 \pm 0.31 &amp; 96.8449 \pm 1.03 &amp; 95.4441 \pm 7.45 \\</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5218,8 +6162,8 @@
       <c r="D18">
         <v>1096</v>
       </c>
-      <c r="E18" s="5">
-        <v>0.97</v>
+      <c r="E18" s="3">
+        <v>96.844899999999996</v>
       </c>
       <c r="F18" s="1">
         <v>1.03</v>
@@ -5228,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5241,8 +6185,8 @@
       <c r="D19">
         <v>2171</v>
       </c>
-      <c r="E19" s="5">
-        <v>0.95</v>
+      <c r="E19" s="3">
+        <v>95.444100000000006</v>
       </c>
       <c r="F19" s="1">
         <v>7.45</v>
@@ -5251,7 +6195,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5264,8 +6208,8 @@
       <c r="D20">
         <v>328</v>
       </c>
-      <c r="E20" s="5">
-        <v>0.92</v>
+      <c r="E20" s="3">
+        <v>92.3536</v>
       </c>
       <c r="F20" s="1">
         <v>2.17</v>
@@ -5275,10 +6219,10 @@
       </c>
       <c r="H20" t="str">
         <f>A20&amp;" &amp; "&amp;B20&amp;" &amp; "&amp;E20&amp;" \pm "&amp;F20&amp;" &amp; "&amp;E21&amp;" \pm "&amp;F21&amp;" &amp; "&amp;E22&amp;" \pm "&amp;F22&amp;" \\"</f>
-        <v>pl &amp; 791 &amp; 0.92 \pm 2.17 &amp; 0.89 \pm 8.83 &amp; 0.79 \pm 37.77 \\</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>pl &amp; 791 &amp; 92.3536 \pm 2.17 &amp; 88.7242 \pm 8.83 &amp; 78.8547 \pm 37.77 \\</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5291,8 +6235,8 @@
       <c r="D21">
         <v>1157</v>
       </c>
-      <c r="E21" s="5">
-        <v>0.89</v>
+      <c r="E21" s="3">
+        <v>88.724199999999996</v>
       </c>
       <c r="F21" s="1">
         <v>8.83</v>
@@ -5301,7 +6245,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -5314,8 +6258,8 @@
       <c r="D22">
         <v>2530</v>
       </c>
-      <c r="E22" s="5">
-        <v>0.79</v>
+      <c r="E22" s="3">
+        <v>78.854699999999994</v>
       </c>
       <c r="F22" s="1">
         <v>37.770000000000003</v>
@@ -5324,7 +6268,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5337,8 +6281,8 @@
       <c r="D23">
         <v>489</v>
       </c>
-      <c r="E23" s="5">
-        <v>0.94</v>
+      <c r="E23" s="3">
+        <v>94.197199999999995</v>
       </c>
       <c r="F23" s="1">
         <v>1.58</v>
@@ -5348,10 +6292,10 @@
       </c>
       <c r="H23" t="str">
         <f>A23&amp;" &amp; "&amp;B23&amp;" &amp; "&amp;E23&amp;" \pm "&amp;F23&amp;" &amp; "&amp;E24&amp;" \pm "&amp;F24&amp;" &amp; "&amp;E25&amp;" \pm "&amp;F25&amp;" \\"</f>
-        <v>ru &amp; 797 &amp; 0.94 \pm 1.58 &amp; 0.92 \pm 6.48 &amp; 0.86 \pm 19.26 \\</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>ru &amp; 797 &amp; 94.1972 \pm 1.58 &amp; 92.0476 \pm 6.48 &amp; 85.9139 \pm 19.26 \\</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -5364,8 +6308,8 @@
       <c r="D24">
         <v>1211</v>
       </c>
-      <c r="E24" s="5">
-        <v>0.92</v>
+      <c r="E24" s="3">
+        <v>92.047600000000003</v>
       </c>
       <c r="F24" s="1">
         <v>6.48</v>
@@ -5374,7 +6318,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -5387,8 +6331,8 @@
       <c r="D25">
         <v>2209</v>
       </c>
-      <c r="E25" s="5">
-        <v>0.86</v>
+      <c r="E25" s="3">
+        <v>85.913899999999998</v>
       </c>
       <c r="F25" s="1">
         <v>19.260000000000002</v>
@@ -5397,7 +6341,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -5410,8 +6354,8 @@
       <c r="D26">
         <v>512</v>
       </c>
-      <c r="E26" s="5">
-        <v>0.99</v>
+      <c r="E26" s="3">
+        <v>99.236800000000002</v>
       </c>
       <c r="F26" s="1">
         <v>0.63</v>
@@ -5421,10 +6365,10 @@
       </c>
       <c r="H26" t="str">
         <f>A26&amp;" &amp; "&amp;B26&amp;" &amp; "&amp;E26&amp;" \pm "&amp;F26&amp;" &amp; "&amp;E27&amp;" \pm "&amp;F27&amp;" &amp; "&amp;E28&amp;" \pm "&amp;F28&amp;" \\"</f>
-        <v>sl &amp; 750 &amp; 0.99 \pm 0.63 &amp; 0.97 \pm 8.07 &amp; 0.93 \pm 40.76 \\</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>sl &amp; 750 &amp; 99.2368 \pm 0.63 &amp; 97.4367 \pm 8.07 &amp; 93.2883 \pm 40.76 \\</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5437,8 +6381,8 @@
       <c r="D27">
         <v>1582</v>
       </c>
-      <c r="E27" s="5">
-        <v>0.97</v>
+      <c r="E27" s="3">
+        <v>97.436700000000002</v>
       </c>
       <c r="F27" s="1">
         <v>8.07</v>
@@ -5447,7 +6391,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -5460,8 +6404,8 @@
       <c r="D28">
         <v>3986</v>
       </c>
-      <c r="E28" s="5">
-        <v>0.93</v>
+      <c r="E28" s="3">
+        <v>93.288300000000007</v>
       </c>
       <c r="F28" s="1">
         <v>40.76</v>
@@ -5470,7 +6414,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -5483,8 +6427,8 @@
       <c r="D29">
         <v>410</v>
       </c>
-      <c r="E29" s="5">
-        <v>0.97</v>
+      <c r="E29" s="3">
+        <v>97.368700000000004</v>
       </c>
       <c r="F29" s="1">
         <v>1.19</v>
@@ -5494,10 +6438,10 @@
       </c>
       <c r="H29" t="str">
         <f>A29&amp;" &amp; "&amp;B29&amp;" &amp; "&amp;E29&amp;" \pm "&amp;F29&amp;" &amp; "&amp;E30&amp;" \pm "&amp;F30&amp;" &amp; "&amp;E31&amp;" \pm "&amp;F31&amp;" \\"</f>
-        <v>tr &amp; 770 &amp; 0.97 \pm 1.19 &amp; 0.95 \pm 4.54 &amp; 0.87 \pm 27.63 \\</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>tr &amp; 770 &amp; 97.3687 \pm 1.19 &amp; 95.1355 \pm 4.54 &amp; 87.2447 \pm 27.63 \\</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -5510,8 +6454,8 @@
       <c r="D30">
         <v>1109</v>
       </c>
-      <c r="E30" s="5">
-        <v>0.95</v>
+      <c r="E30" s="3">
+        <v>95.135499999999993</v>
       </c>
       <c r="F30" s="1">
         <v>4.54</v>
@@ -5520,7 +6464,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5533,8 +6477,8 @@
       <c r="D31">
         <v>2541</v>
       </c>
-      <c r="E31" s="5">
-        <v>0.87</v>
+      <c r="E31" s="3">
+        <v>87.244699999999995</v>
       </c>
       <c r="F31" s="1">
         <v>27.63</v>
@@ -5543,7 +6487,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -5556,8 +6500,8 @@
       <c r="D32">
         <v>363</v>
       </c>
-      <c r="E32" s="5">
-        <v>0.88</v>
+      <c r="E32" s="3">
+        <v>88.4559</v>
       </c>
       <c r="F32" s="1">
         <v>2.95</v>
@@ -5567,10 +6511,10 @@
       </c>
       <c r="H32" t="str">
         <f>A32&amp;" &amp; "&amp;B32&amp;" &amp; "&amp;E32&amp;" \pm "&amp;F32&amp;" &amp; "&amp;E33&amp;" \pm "&amp;F33&amp;" &amp; "&amp;E34&amp;" \pm "&amp;F34&amp;" \\"</f>
-        <v>tt &amp; 857 &amp; 0.88 \pm 2.95 &amp; 0.82 \pm 8.68 &amp; 0.64 \pm 25.81 \\</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>tt &amp; 857 &amp; 88.4559 \pm 2.95 &amp; 81.8604 \pm 8.68 &amp; 63.9376 \pm 25.81 \\</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -5583,8 +6527,8 @@
       <c r="D33">
         <v>919</v>
       </c>
-      <c r="E33" s="5">
-        <v>0.82</v>
+      <c r="E33" s="3">
+        <v>81.860399999999998</v>
       </c>
       <c r="F33" s="1">
         <v>8.68</v>
@@ -5593,7 +6537,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -5606,8 +6550,8 @@
       <c r="D34">
         <v>1720</v>
       </c>
-      <c r="E34" s="5">
-        <v>0.64</v>
+      <c r="E34" s="3">
+        <v>63.937600000000003</v>
       </c>
       <c r="F34" s="1">
         <v>25.81</v>
@@ -5616,7 +6560,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -5629,8 +6573,8 @@
       <c r="D35">
         <v>516</v>
       </c>
-      <c r="E35" s="5">
-        <v>0.99</v>
+      <c r="E35" s="3">
+        <v>99.355400000000003</v>
       </c>
       <c r="F35" s="1">
         <v>1.08</v>
@@ -5640,10 +6584,10 @@
       </c>
       <c r="H35" t="str">
         <f>A35&amp;" &amp; "&amp;B35&amp;" &amp; "&amp;E35&amp;" \pm "&amp;F35&amp;" &amp; "&amp;E36&amp;" \pm "&amp;F36&amp;" &amp; "&amp;E37&amp;" \pm "&amp;F37&amp;" \\"</f>
-        <v>uz &amp; 761 &amp; 0.99 \pm 1.08 &amp; 0.98 \pm 4.35 &amp; 0.94 \pm 22.53 \\</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>uz &amp; 761 &amp; 99.3554 \pm 1.08 &amp; 97.6575 \pm 4.35 &amp; 93.8987 \pm 22.53 \\</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -5656,8 +6600,8 @@
       <c r="D36">
         <v>1150</v>
       </c>
-      <c r="E36" s="5">
-        <v>0.98</v>
+      <c r="E36" s="3">
+        <v>97.657499999999999</v>
       </c>
       <c r="F36" s="1">
         <v>4.3499999999999996</v>
@@ -5666,7 +6610,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -5679,18 +6623,892 @@
       <c r="D37">
         <v>2740</v>
       </c>
-      <c r="E37" s="5">
-        <v>0.94</v>
+      <c r="E37" s="3">
+        <v>93.898700000000005</v>
       </c>
       <c r="F37" s="1">
         <v>22.53</v>
       </c>
       <c r="G37">
         <v>22.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C4BB8B-AF20-4DA6-9E59-498F3A628459}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>84.860900000000001</v>
+      </c>
+      <c r="D2">
+        <v>51.32</v>
+      </c>
+      <c r="E2">
+        <v>67.469899999999996</v>
+      </c>
+      <c r="F2">
+        <v>95.17</v>
+      </c>
+      <c r="G2">
+        <v>75.425399999999996</v>
+      </c>
+      <c r="H2">
+        <v>143.62</v>
+      </c>
+      <c r="I2">
+        <v>79.744600000000005</v>
+      </c>
+      <c r="J2" t="str">
+        <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;C2&amp;" \pm "&amp;D2&amp;" &amp; "&amp;E2&amp;" \pm "&amp;F2&amp;" &amp; "&amp;G2&amp;" \pm "&amp;H2&amp;" &amp; "&amp;I2&amp;" \\ "</f>
+        <v xml:space="preserve">en  &amp;  72/977  &amp; 84.8609 \pm 51.32 &amp; 67.4699 \pm 95.17 &amp; 75.4254 \pm 143.62 &amp; 79.7446 \\ </v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>86.701599999999999</v>
+      </c>
+      <c r="D3">
+        <v>39.15</v>
+      </c>
+      <c r="E3">
+        <v>70.0505</v>
+      </c>
+      <c r="F3">
+        <v>92.97</v>
+      </c>
+      <c r="G3">
+        <v>76.757099999999994</v>
+      </c>
+      <c r="H3">
+        <v>131.24</v>
+      </c>
+      <c r="I3">
+        <v>82.197500000000005</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J12" si="0">A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" \pm "&amp;D3&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;G3&amp;" \pm "&amp;H3&amp;" &amp; "&amp;I3&amp;" \\ "</f>
+        <v xml:space="preserve">es  &amp;  74/971  &amp; 86.7016 \pm 39.15 &amp; 70.0505 \pm 92.97 &amp; 76.7571 \pm 131.24 &amp; 82.1975 \\ </v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>39.582000000000001</v>
+      </c>
+      <c r="D4">
+        <v>59.33</v>
+      </c>
+      <c r="E4">
+        <v>18.809200000000001</v>
+      </c>
+      <c r="F4">
+        <v>58.46</v>
+      </c>
+      <c r="G4">
+        <v>27.646000000000001</v>
+      </c>
+      <c r="H4">
+        <v>115.35</v>
+      </c>
+      <c r="I4">
+        <v>30.261700000000001</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fr  &amp;  86/1076  &amp; 39.582 \pm 59.33 &amp; 18.8092 \pm 58.46 &amp; 27.646 \pm 115.35 &amp; 30.2617 \\ </v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>27.843</v>
+      </c>
+      <c r="D5">
+        <v>48.02</v>
+      </c>
+      <c r="E5">
+        <v>10.8948</v>
+      </c>
+      <c r="F5">
+        <v>47.15</v>
+      </c>
+      <c r="G5">
+        <v>18.199100000000001</v>
+      </c>
+      <c r="H5">
+        <v>92.98</v>
+      </c>
+      <c r="I5">
+        <v>20.637799999999999</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">kz  &amp;  89/1127  &amp; 27.843 \pm 48.02 &amp; 10.8948 \pm 47.15 &amp; 18.1991 \pm 92.98 &amp; 20.6378 \\ </v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>90.545900000000003</v>
+      </c>
+      <c r="D6">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="E6">
+        <v>73.147999999999996</v>
+      </c>
+      <c r="F6">
+        <v>51.91</v>
+      </c>
+      <c r="G6">
+        <v>80.658500000000004</v>
+      </c>
+      <c r="H6">
+        <v>67.97</v>
+      </c>
+      <c r="I6">
+        <v>83.036100000000005</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ms  &amp;  74/986  &amp; 90.5459 \pm 17.81 &amp; 73.148 \pm 51.91 &amp; 80.6585 \pm 67.97 &amp; 83.0361 \\ </v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>65.852699999999999</v>
+      </c>
+      <c r="D7">
+        <v>67.47</v>
+      </c>
+      <c r="E7">
+        <v>45.9221</v>
+      </c>
+      <c r="F7">
+        <v>109.41</v>
+      </c>
+      <c r="G7">
+        <v>54.49</v>
+      </c>
+      <c r="H7">
+        <v>173.8</v>
+      </c>
+      <c r="I7">
+        <v>58.329799999999999</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">pl  &amp;  79/1003  &amp; 65.8527 \pm 67.47 &amp; 45.9221 \pm 109.41 &amp; 54.49 \pm 173.8 &amp; 58.3298 \\ </v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>70.302199999999999</v>
+      </c>
+      <c r="D8">
+        <v>45.71</v>
+      </c>
+      <c r="E8">
+        <v>48.820300000000003</v>
+      </c>
+      <c r="F8">
+        <v>78.77</v>
+      </c>
+      <c r="G8">
+        <v>58.3187</v>
+      </c>
+      <c r="H8">
+        <v>119.79</v>
+      </c>
+      <c r="I8">
+        <v>61.375900000000001</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ru  &amp;  79/1023  &amp; 70.3022 \pm 45.71 &amp; 48.8203 \pm 78.77 &amp; 58.3187 \pm 119.79 &amp; 61.3759 \\ </v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>87.321299999999994</v>
+      </c>
+      <c r="D9">
+        <v>71.12</v>
+      </c>
+      <c r="E9">
+        <v>71.464600000000004</v>
+      </c>
+      <c r="F9">
+        <v>130.44</v>
+      </c>
+      <c r="G9">
+        <v>78.708699999999993</v>
+      </c>
+      <c r="H9">
+        <v>199.57</v>
+      </c>
+      <c r="I9">
+        <v>83.567300000000003</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sl  &amp;  75/974  &amp; 87.3213 \pm 71.12 &amp; 71.4646 \pm 130.44 &amp; 78.7087 \pm 199.57 &amp; 83.5673 \\ </v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>73.366200000000006</v>
+      </c>
+      <c r="D10">
+        <v>46.96</v>
+      </c>
+      <c r="E10">
+        <v>49.684600000000003</v>
+      </c>
+      <c r="F10">
+        <v>101.26</v>
+      </c>
+      <c r="G10">
+        <v>59.323399999999999</v>
+      </c>
+      <c r="H10">
+        <v>145.19</v>
+      </c>
+      <c r="I10">
+        <v>62.851300000000002</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tr  &amp;  77/987  &amp; 73.3662 \pm 46.96 &amp; 49.6846 \pm 101.26 &amp; 59.3234 \pm 145.19 &amp; 62.8513 \\ </v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>44.877299999999998</v>
+      </c>
+      <c r="D11">
+        <v>46.02</v>
+      </c>
+      <c r="E11">
+        <v>22.154499999999999</v>
+      </c>
+      <c r="F11">
+        <v>55.84</v>
+      </c>
+      <c r="G11">
+        <v>31.928799999999999</v>
+      </c>
+      <c r="H11">
+        <v>97.6</v>
+      </c>
+      <c r="I11">
+        <v>33.973399999999998</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tt  &amp;  85/1094  &amp; 44.8773 \pm 46.02 &amp; 22.1545 \pm 55.84 &amp; 31.9288 \pm 97.6 &amp; 33.9734 \\ </v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <v>84.935400000000001</v>
+      </c>
+      <c r="D12">
+        <v>58.07</v>
+      </c>
+      <c r="E12">
+        <v>66.371700000000004</v>
+      </c>
+      <c r="F12">
+        <v>108.94</v>
+      </c>
+      <c r="G12">
+        <v>74.655799999999999</v>
+      </c>
+      <c r="H12">
+        <v>163.78</v>
+      </c>
+      <c r="I12">
+        <v>77.835800000000006</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">uz  &amp;  76/991  &amp; 84.9354 \pm 58.07 &amp; 66.3717 \pm 108.94 &amp; 74.6558 \pm 163.78 &amp; 77.8358 \\ </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D6E65-58EE-4036-8E69-3C08E886D8A8}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>87.307100000000005</v>
+      </c>
+      <c r="D2">
+        <v>46.59</v>
+      </c>
+      <c r="E2">
+        <v>71.182199999999995</v>
+      </c>
+      <c r="F2">
+        <v>110.4</v>
+      </c>
+      <c r="G2">
+        <v>78.558499999999995</v>
+      </c>
+      <c r="H2">
+        <v>155.25</v>
+      </c>
+      <c r="I2">
+        <v>84.756399999999999</v>
+      </c>
+      <c r="J2" t="str">
+        <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;C2&amp;" \pm "&amp;D2&amp;" &amp; "&amp;E2&amp;" \pm "&amp;F2&amp;" &amp; "&amp;G2&amp;" \pm "&amp;H2&amp;" &amp; "&amp;I2&amp;" \\ "</f>
+        <v xml:space="preserve">en  &amp;  86/977  &amp; 87.3071 \pm 46.59 &amp; 71.1822 \pm 110.4 &amp; 78.5585 \pm 155.25 &amp; 84.7564 \\ </v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>93.995000000000005</v>
+      </c>
+      <c r="D3">
+        <v>29.2</v>
+      </c>
+      <c r="E3">
+        <v>83.658600000000007</v>
+      </c>
+      <c r="F3">
+        <v>85.27</v>
+      </c>
+      <c r="G3">
+        <v>87.821799999999996</v>
+      </c>
+      <c r="H3">
+        <v>113.12</v>
+      </c>
+      <c r="I3">
+        <v>92.444000000000003</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J12" si="0">A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" \pm "&amp;D3&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;G3&amp;" \pm "&amp;H3&amp;" &amp; "&amp;I3&amp;" \\ "</f>
+        <v xml:space="preserve">es  &amp;  143/971  &amp; 93.995 \pm 29.2 &amp; 83.6586 \pm 85.27 &amp; 87.8218 \pm 113.12 &amp; 92.444 \\ </v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>81.325400000000002</v>
+      </c>
+      <c r="D4">
+        <v>45.5</v>
+      </c>
+      <c r="E4">
+        <v>63.070900000000002</v>
+      </c>
+      <c r="F4">
+        <v>104.57</v>
+      </c>
+      <c r="G4">
+        <v>70.836399999999998</v>
+      </c>
+      <c r="H4">
+        <v>146.53</v>
+      </c>
+      <c r="I4">
+        <v>74.153499999999994</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fr  &amp;  65/1076  &amp; 81.3254 \pm 45.5 &amp; 63.0709 \pm 104.57 &amp; 70.8364 \pm 146.53 &amp; 74.1535 \\ </v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>56.299500000000002</v>
+      </c>
+      <c r="D5">
+        <v>64.36</v>
+      </c>
+      <c r="E5">
+        <v>37.883800000000001</v>
+      </c>
+      <c r="F5">
+        <v>111.26</v>
+      </c>
+      <c r="G5">
+        <v>45.820500000000003</v>
+      </c>
+      <c r="H5">
+        <v>172.22</v>
+      </c>
+      <c r="I5">
+        <v>49.136600000000001</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">kz  &amp;  42/1127  &amp; 56.2995 \pm 64.36 &amp; 37.8838 \pm 111.26 &amp; 45.8205 \pm 172.22 &amp; 49.1366 \\ </v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>89.880099999999999</v>
+      </c>
+      <c r="D6">
+        <v>42.17</v>
+      </c>
+      <c r="E6">
+        <v>75.545900000000003</v>
+      </c>
+      <c r="F6">
+        <v>96.4</v>
+      </c>
+      <c r="G6">
+        <v>81.733800000000002</v>
+      </c>
+      <c r="H6">
+        <v>136.79</v>
+      </c>
+      <c r="I6">
+        <v>88.311199999999999</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ms  &amp;  105/986  &amp; 89.8801 \pm 42.17 &amp; 75.5459 \pm 96.4 &amp; 81.7338 \pm 136.79 &amp; 88.3112 \\ </v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>87.920900000000003</v>
+      </c>
+      <c r="D7">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="E7">
+        <v>76.652799999999999</v>
+      </c>
+      <c r="F7">
+        <v>73.27</v>
+      </c>
+      <c r="G7">
+        <v>81.496799999999993</v>
+      </c>
+      <c r="H7">
+        <v>106.37</v>
+      </c>
+      <c r="I7">
+        <v>84.271699999999996</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">pl  &amp;  67/1003  &amp; 87.9209 \pm 35.45 &amp; 76.6528 \pm 73.27 &amp; 81.4968 \pm 106.37 &amp; 84.2717 \\ </v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>86.175200000000004</v>
+      </c>
+      <c r="D8">
+        <v>44.17</v>
+      </c>
+      <c r="E8">
+        <v>74.173299999999998</v>
+      </c>
+      <c r="F8">
+        <v>89.86</v>
+      </c>
+      <c r="G8">
+        <v>79.480099999999993</v>
+      </c>
+      <c r="H8">
+        <v>132.18</v>
+      </c>
+      <c r="I8">
+        <v>81.948300000000003</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ru  &amp;  38/1023  &amp; 86.1752 \pm 44.17 &amp; 74.1733 \pm 89.86 &amp; 79.4801 \pm 132.18 &amp; 81.9483 \\ </v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>94.672899999999998</v>
+      </c>
+      <c r="D9">
+        <v>28.54</v>
+      </c>
+      <c r="E9">
+        <v>86.121899999999997</v>
+      </c>
+      <c r="F9">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="G9">
+        <v>90.028499999999994</v>
+      </c>
+      <c r="H9">
+        <v>96.92</v>
+      </c>
+      <c r="I9">
+        <v>92.752200000000002</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sl  &amp;  84/974  &amp; 94.6729 \pm 28.54 &amp; 86.1219 \pm 70.1 &amp; 90.0285 \pm 96.92 &amp; 92.7522 \\ </v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>83.951099999999997</v>
+      </c>
+      <c r="D10">
+        <v>40.97</v>
+      </c>
+      <c r="E10">
+        <v>66.906000000000006</v>
+      </c>
+      <c r="F10">
+        <v>86.13</v>
+      </c>
+      <c r="G10">
+        <v>73.843599999999995</v>
+      </c>
+      <c r="H10">
+        <v>124.29</v>
+      </c>
+      <c r="I10">
+        <v>76.376499999999993</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tr  &amp;  68/987  &amp; 83.9511 \pm 40.97 &amp; 66.906 \pm 86.13 &amp; 73.8436 \pm 124.29 &amp; 76.3765 \\ </v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>67.349599999999995</v>
+      </c>
+      <c r="D11">
+        <v>53.05</v>
+      </c>
+      <c r="E11">
+        <v>47.501100000000001</v>
+      </c>
+      <c r="F11">
+        <v>92.8</v>
+      </c>
+      <c r="G11">
+        <v>56.039000000000001</v>
+      </c>
+      <c r="H11">
+        <v>141.77000000000001</v>
+      </c>
+      <c r="I11">
+        <v>58.809899999999999</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tt  &amp;  45/1094  &amp; 67.3496 \pm 53.05 &amp; 47.5011 \pm 92.8 &amp; 56.039 \pm 141.77 &amp; 58.8099 \\ </v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>92.181299999999993</v>
+      </c>
+      <c r="D12">
+        <v>44.72</v>
+      </c>
+      <c r="E12">
+        <v>78.878799999999998</v>
+      </c>
+      <c r="F12">
+        <v>121.42</v>
+      </c>
+      <c r="G12">
+        <v>84.815100000000001</v>
+      </c>
+      <c r="H12">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I12">
+        <v>88.656899999999993</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">uz  &amp;  84/991  &amp; 92.1813 \pm 44.72 &amp; 78.8788 \pm 121.42 &amp; 84.8151 \pm 163.2 &amp; 88.6569 \\ </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Evaluation/Result.xlsx
+++ b/Evaluation/Result.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\MatchingLetterGame\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F4CDCB-23DD-4B0E-8685-A8185AD60535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80BE217-1E02-4DD2-8B31-B4122101DC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12240" firstSheet="1" activeTab="5" xr2:uid="{078A28CE-FD62-4ACD-A2CB-A56535CB44E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{078A28CE-FD62-4ACD-A2CB-A56535CB44E0}"/>
   </bookViews>
   <sheets>
     <sheet name="letter35+67 overleaf" sheetId="11" r:id="rId1"/>
-    <sheet name="letter35+67" sheetId="9" r:id="rId2"/>
+    <sheet name="letter35+67 temp" sheetId="9" r:id="rId2"/>
     <sheet name="optimzed 7cub" sheetId="12" r:id="rId3"/>
     <sheet name="optimized 8cub 35" sheetId="10" r:id="rId4"/>
-    <sheet name="optimized 8 67" sheetId="13" r:id="rId5"/>
-    <sheet name="optimized 9 67" sheetId="14" r:id="rId6"/>
+    <sheet name="optimized 7cub 35" sheetId="15" r:id="rId5"/>
+    <sheet name="optimized 8 cub 35" sheetId="16" r:id="rId6"/>
+    <sheet name="optimized 8 67" sheetId="13" r:id="rId7"/>
+    <sheet name="optimized 9 67" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="117">
   <si>
     <t xml:space="preserve">de </t>
   </si>
@@ -227,70 +229,169 @@
     <t>max in total</t>
   </si>
   <si>
-    <t xml:space="preserve"> 72/977 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74/971 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86/1076 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89/1127 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74/986 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79/1003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79/1023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75/974 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77/987 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85/1094 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76/991 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 86/977 </t>
   </si>
   <si>
     <t xml:space="preserve"> 143/971 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 65/1076 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42/1127 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 105/986 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 67/1003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38/1023 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 84/974 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 68/987 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 45/1094 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 84/991 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79/790 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72/720 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74/740 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79/791 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79/797 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75/750 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77/770 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76/761 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82/1003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86/1023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82/987 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 596/596 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 512/512 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 525/525 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 503/503 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 617/617 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 544/544 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 578/578 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 577/577 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg 3letter</t>
+  </si>
+  <si>
+    <t>stdev 3letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg 4letter</t>
+  </si>
+  <si>
+    <t>stdev 4letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg 5letter</t>
+  </si>
+  <si>
+    <t>stdev 5letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 591/591 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 790/790 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720/720 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 740/740 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 728/728 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 791/791 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 797/797 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 750/750 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 770/770 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 761/761 </t>
+  </si>
+  <si>
+    <t>pastlarni qayta kurib chiqmiz, kz buldi, uni qayta olish garak natijalarga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 598/598 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 600/600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 792/792 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 773/773 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 489/489 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 687/687 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68/687 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79/792 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72/728 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77/773 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77/996 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92/921 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53/1014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24/1001 </t>
   </si>
 </sst>
 </file>
@@ -316,12 +417,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -336,21 +443,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,9 +774,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EE4850-5EFE-4DDB-A540-D1C0ACB834E6}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -687,32 +798,32 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -1147,18 +1258,18 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1593,18 +1704,18 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -2039,18 +2150,18 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
@@ -2485,16 +2596,16 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="1" t="s">
         <v>34</v>
       </c>
@@ -2912,10 +3023,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6ACFBA-BC03-4E72-A972-51D4A6ABAB88}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2933,32 +3047,32 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -3349,18 +3463,18 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -3747,18 +3861,18 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
@@ -4145,18 +4259,18 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
@@ -4543,16 +4657,16 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="1" t="s">
         <v>34</v>
       </c>
@@ -4922,10 +5036,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E777B144-1971-4CAE-8FCC-EC46E98333C5}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5725,9 +5842,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BF06AC-0D87-4F5E-960B-54625790A6A5}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6700,405 +6820,516 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C4BB8B-AF20-4DA6-9E59-498F3A628459}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED7322C-7E2E-41EB-AA98-0950BD19E665}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L2" sqref="L2:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>91.8</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <v>82.9</v>
+      </c>
+      <c r="F2">
+        <v>0.9</v>
+      </c>
+      <c r="G2">
+        <v>70.5</v>
+      </c>
+      <c r="H2">
+        <v>1.3</v>
+      </c>
+      <c r="I2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="J2">
+        <v>0.9</v>
+      </c>
+      <c r="K2">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="L2" t="str">
+        <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;C2&amp;" \pm "&amp;D2&amp;" &amp; "&amp;E2&amp;" \pm "&amp;F2&amp;" &amp; "&amp;G2&amp;" \pm "&amp;H2&amp;" &amp; "&amp;I2&amp;" \pm "&amp;J2&amp;" &amp; "&amp;K2&amp;" \\ "</f>
+        <v xml:space="preserve">de  &amp;  596/596  &amp; 91.8 \pm 0.6 &amp; 82.9 \pm 0.9 &amp; 70.5 \pm 1.3 &amp; 77.1 \pm 0.9 &amp; 78.9 \\ </v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>92.4</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>92.1</v>
+      </c>
+      <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3">
+        <v>88.4</v>
+      </c>
+      <c r="H3">
+        <v>0.8</v>
+      </c>
+      <c r="I3">
+        <v>90.6</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>91.8</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L13" si="0">A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" \pm "&amp;D3&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;G3&amp;" \pm "&amp;H3&amp;" &amp; "&amp;I3&amp;" \pm "&amp;J3&amp;" &amp; "&amp;K3&amp;" \\ "</f>
+        <v xml:space="preserve">en  &amp;  512/512  &amp; 92.4 \pm 0.2 &amp; 92.1 \pm 0.4 &amp; 88.4 \pm 0.8 &amp; 90.6 \pm 0.5 &amp; 91.8 \\ </v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>87.4</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>86.3</v>
+      </c>
+      <c r="H4">
+        <v>0.9</v>
+      </c>
+      <c r="I4">
+        <v>86.4</v>
+      </c>
+      <c r="J4">
+        <v>0.6</v>
+      </c>
+      <c r="K4">
+        <v>87.5</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">es  &amp;  525/525  &amp; 84 \pm 0.1 &amp; 87.4 \pm 0.3 &amp; 86.3 \pm 0.9 &amp; 86.4 \pm 0.6 &amp; 87.5 \\ </v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5">
+        <v>83.6</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>78.5</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
+        <v>74.5</v>
+      </c>
+      <c r="H5">
+        <v>0.9</v>
+      </c>
+      <c r="I5">
+        <v>76.5</v>
+      </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fr  &amp;  489/489  &amp; 83.6 \pm 0.7 &amp; 78.5 \pm 0.7 &amp; 74.5 \pm 0.9 &amp; 76.5 \pm 0.8 &amp; 77.9 \\ </v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F6">
+        <v>0.9</v>
+      </c>
+      <c r="G6">
+        <v>55.8</v>
+      </c>
+      <c r="H6">
+        <v>1.2</v>
+      </c>
+      <c r="I6">
+        <v>62.6</v>
+      </c>
+      <c r="J6">
+        <v>0.9</v>
+      </c>
+      <c r="K6">
+        <v>65.7</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">kz  &amp;  598/598  &amp; 77.4 \pm 0.7 &amp; 72.6 \pm 0.9 &amp; 55.8 \pm 1.2 &amp; 62.6 \pm 0.9 &amp; 65.7 \\ </v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <v>95.6</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>95.2</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>90.4</v>
+      </c>
+      <c r="H7">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <v>92.4</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>93.2</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ms  &amp;  503/503  &amp; 95.6 \pm 0.2 &amp; 95.2 \pm 0.3 &amp; 90.4 \pm 0.8 &amp; 92.4 \pm 0.5 &amp; 93.2 \\ </v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>86.3</v>
+      </c>
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>75.8</v>
+      </c>
+      <c r="F8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G8">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="H8">
+        <v>1.2</v>
+      </c>
+      <c r="I8">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2">
-        <v>84.860900000000001</v>
-      </c>
-      <c r="D2">
-        <v>51.32</v>
-      </c>
-      <c r="E2">
-        <v>67.469899999999996</v>
-      </c>
-      <c r="F2">
-        <v>95.17</v>
-      </c>
-      <c r="G2">
-        <v>75.425399999999996</v>
-      </c>
-      <c r="H2">
-        <v>143.62</v>
-      </c>
-      <c r="I2">
-        <v>79.744600000000005</v>
-      </c>
-      <c r="J2" t="str">
-        <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;C2&amp;" \pm "&amp;D2&amp;" &amp; "&amp;E2&amp;" \pm "&amp;F2&amp;" &amp; "&amp;G2&amp;" \pm "&amp;H2&amp;" &amp; "&amp;I2&amp;" \\ "</f>
-        <v xml:space="preserve">en  &amp;  72/977  &amp; 84.8609 \pm 51.32 &amp; 67.4699 \pm 95.17 &amp; 75.4254 \pm 143.62 &amp; 79.7446 \\ </v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="K8">
+        <v>67.8</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">pl  &amp;  591/591  &amp; 86.3 \pm 0.8 &amp; 75.8 \pm 1.1 &amp; 58 \pm 1.2 &amp; 64.9 \pm 1 &amp; 67.8 \\ </v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>84.8</v>
+      </c>
+      <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>76.7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>56.8</v>
+      </c>
+      <c r="H9">
+        <v>1.8</v>
+      </c>
+      <c r="I9">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="J9">
+        <v>1.3</v>
+      </c>
+      <c r="K9">
+        <v>69.8</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ru  &amp;  617/617  &amp; 84.8 \pm 0.7 &amp; 76.7 \pm 1 &amp; 56.8 \pm 1.8 &amp; 66.1 \pm 1.3 &amp; 69.8 \\ </v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>95.4</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>93.3</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>84.8</v>
+      </c>
+      <c r="H10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I10">
+        <v>87.8</v>
+      </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>90</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sl  &amp;  544/544  &amp; 95.4 \pm 0.5 &amp; 93.3 \pm 0.5 &amp; 84.8 \pm 1.1 &amp; 87.8 \pm 0.8 &amp; 90 \\ </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>91.2</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>85.3</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>69.5</v>
+      </c>
+      <c r="H11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I11">
+        <v>75.7</v>
+      </c>
+      <c r="J11">
+        <v>0.9</v>
+      </c>
+      <c r="K11">
+        <v>78.3</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tr  &amp;  578/578  &amp; 91.2 \pm 0.7 &amp; 85.3 \pm 0.7 &amp; 69.5 \pm 1.1 &amp; 75.7 \pm 0.9 &amp; 78.3 \\ </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D12">
+        <v>1.2</v>
+      </c>
+      <c r="E12">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G12">
+        <v>47.5</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>55.3</v>
+      </c>
+      <c r="J12">
+        <v>0.9</v>
+      </c>
+      <c r="K12">
+        <v>58.7</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tt  &amp;  600/600  &amp; 75.1 \pm 1.2 &amp; 66.4 \pm 1.1 &amp; 47.5 \pm 1 &amp; 55.3 \pm 0.9 &amp; 58.7 \\ </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>87.6</v>
+      </c>
+      <c r="F13">
+        <v>0.9</v>
+      </c>
+      <c r="G13">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3">
-        <v>86.701599999999999</v>
-      </c>
-      <c r="D3">
-        <v>39.15</v>
-      </c>
-      <c r="E3">
-        <v>70.0505</v>
-      </c>
-      <c r="F3">
-        <v>92.97</v>
-      </c>
-      <c r="G3">
-        <v>76.757099999999994</v>
-      </c>
-      <c r="H3">
-        <v>131.24</v>
-      </c>
-      <c r="I3">
-        <v>82.197500000000005</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J12" si="0">A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" \pm "&amp;D3&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;G3&amp;" \pm "&amp;H3&amp;" &amp; "&amp;I3&amp;" \\ "</f>
-        <v xml:space="preserve">es  &amp;  74/971  &amp; 86.7016 \pm 39.15 &amp; 70.0505 \pm 92.97 &amp; 76.7571 \pm 131.24 &amp; 82.1975 \\ </v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4">
-        <v>39.582000000000001</v>
-      </c>
-      <c r="D4">
-        <v>59.33</v>
-      </c>
-      <c r="E4">
-        <v>18.809200000000001</v>
-      </c>
-      <c r="F4">
-        <v>58.46</v>
-      </c>
-      <c r="G4">
-        <v>27.646000000000001</v>
-      </c>
-      <c r="H4">
-        <v>115.35</v>
-      </c>
-      <c r="I4">
-        <v>30.261700000000001</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="I13">
+        <v>79.7</v>
+      </c>
+      <c r="J13">
+        <v>1.5</v>
+      </c>
+      <c r="K13">
+        <v>84</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">fr  &amp;  86/1076  &amp; 39.582 \pm 59.33 &amp; 18.8092 \pm 58.46 &amp; 27.646 \pm 115.35 &amp; 30.2617 \\ </v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <v>27.843</v>
-      </c>
-      <c r="D5">
-        <v>48.02</v>
-      </c>
-      <c r="E5">
-        <v>10.8948</v>
-      </c>
-      <c r="F5">
-        <v>47.15</v>
-      </c>
-      <c r="G5">
-        <v>18.199100000000001</v>
-      </c>
-      <c r="H5">
-        <v>92.98</v>
-      </c>
-      <c r="I5">
-        <v>20.637799999999999</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">kz  &amp;  89/1127  &amp; 27.843 \pm 48.02 &amp; 10.8948 \pm 47.15 &amp; 18.1991 \pm 92.98 &amp; 20.6378 \\ </v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6">
-        <v>90.545900000000003</v>
-      </c>
-      <c r="D6">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="E6">
-        <v>73.147999999999996</v>
-      </c>
-      <c r="F6">
-        <v>51.91</v>
-      </c>
-      <c r="G6">
-        <v>80.658500000000004</v>
-      </c>
-      <c r="H6">
-        <v>67.97</v>
-      </c>
-      <c r="I6">
-        <v>83.036100000000005</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">ms  &amp;  74/986  &amp; 90.5459 \pm 17.81 &amp; 73.148 \pm 51.91 &amp; 80.6585 \pm 67.97 &amp; 83.0361 \\ </v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7">
-        <v>65.852699999999999</v>
-      </c>
-      <c r="D7">
-        <v>67.47</v>
-      </c>
-      <c r="E7">
-        <v>45.9221</v>
-      </c>
-      <c r="F7">
-        <v>109.41</v>
-      </c>
-      <c r="G7">
-        <v>54.49</v>
-      </c>
-      <c r="H7">
-        <v>173.8</v>
-      </c>
-      <c r="I7">
-        <v>58.329799999999999</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">pl  &amp;  79/1003  &amp; 65.8527 \pm 67.47 &amp; 45.9221 \pm 109.41 &amp; 54.49 \pm 173.8 &amp; 58.3298 \\ </v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <v>70.302199999999999</v>
-      </c>
-      <c r="D8">
-        <v>45.71</v>
-      </c>
-      <c r="E8">
-        <v>48.820300000000003</v>
-      </c>
-      <c r="F8">
-        <v>78.77</v>
-      </c>
-      <c r="G8">
-        <v>58.3187</v>
-      </c>
-      <c r="H8">
-        <v>119.79</v>
-      </c>
-      <c r="I8">
-        <v>61.375900000000001</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">ru  &amp;  79/1023  &amp; 70.3022 \pm 45.71 &amp; 48.8203 \pm 78.77 &amp; 58.3187 \pm 119.79 &amp; 61.3759 \\ </v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9">
-        <v>87.321299999999994</v>
-      </c>
-      <c r="D9">
-        <v>71.12</v>
-      </c>
-      <c r="E9">
-        <v>71.464600000000004</v>
-      </c>
-      <c r="F9">
-        <v>130.44</v>
-      </c>
-      <c r="G9">
-        <v>78.708699999999993</v>
-      </c>
-      <c r="H9">
-        <v>199.57</v>
-      </c>
-      <c r="I9">
-        <v>83.567300000000003</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">sl  &amp;  75/974  &amp; 87.3213 \pm 71.12 &amp; 71.4646 \pm 130.44 &amp; 78.7087 \pm 199.57 &amp; 83.5673 \\ </v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10">
-        <v>73.366200000000006</v>
-      </c>
-      <c r="D10">
-        <v>46.96</v>
-      </c>
-      <c r="E10">
-        <v>49.684600000000003</v>
-      </c>
-      <c r="F10">
-        <v>101.26</v>
-      </c>
-      <c r="G10">
-        <v>59.323399999999999</v>
-      </c>
-      <c r="H10">
-        <v>145.19</v>
-      </c>
-      <c r="I10">
-        <v>62.851300000000002</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">tr  &amp;  77/987  &amp; 73.3662 \pm 46.96 &amp; 49.6846 \pm 101.26 &amp; 59.3234 \pm 145.19 &amp; 62.8513 \\ </v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11">
-        <v>44.877299999999998</v>
-      </c>
-      <c r="D11">
-        <v>46.02</v>
-      </c>
-      <c r="E11">
-        <v>22.154499999999999</v>
-      </c>
-      <c r="F11">
-        <v>55.84</v>
-      </c>
-      <c r="G11">
-        <v>31.928799999999999</v>
-      </c>
-      <c r="H11">
-        <v>97.6</v>
-      </c>
-      <c r="I11">
-        <v>33.973399999999998</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">tt  &amp;  85/1094  &amp; 44.8773 \pm 46.02 &amp; 22.1545 \pm 55.84 &amp; 31.9288 \pm 97.6 &amp; 33.9734 \\ </v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12">
-        <v>84.935400000000001</v>
-      </c>
-      <c r="D12">
-        <v>58.07</v>
-      </c>
-      <c r="E12">
-        <v>66.371700000000004</v>
-      </c>
-      <c r="F12">
-        <v>108.94</v>
-      </c>
-      <c r="G12">
-        <v>74.655799999999999</v>
-      </c>
-      <c r="H12">
-        <v>163.78</v>
-      </c>
-      <c r="I12">
-        <v>77.835800000000006</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">uz  &amp;  76/991  &amp; 84.9354 \pm 58.07 &amp; 66.3717 \pm 108.94 &amp; 74.6558 \pm 163.78 &amp; 77.8358 \\ </v>
+        <v xml:space="preserve">uz  &amp;  577/577  &amp; 94 \pm 0.5 &amp; 87.6 \pm 0.9 &amp; 73.9 \pm 2 &amp; 79.7 \pm 1.5 &amp; 84 \\ </v>
       </c>
     </row>
   </sheetData>
@@ -7107,17 +7338,538 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D6E65-58EE-4036-8E69-3C08E886D8A8}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4335D22-7F6B-4A12-8FC9-666CCDAD13A8}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>96.8</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>93.4</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2">
+        <v>86.3</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>89.8</v>
+      </c>
+      <c r="J2">
+        <v>0.6</v>
+      </c>
+      <c r="K2">
+        <v>91.4</v>
+      </c>
+      <c r="L2" t="str">
+        <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;C2&amp;" \pm "&amp;D2&amp;" &amp; "&amp;E2&amp;" \pm "&amp;F2&amp;" &amp; "&amp;G2&amp;" \pm "&amp;H2&amp;" &amp; "&amp;I2&amp;" \pm "&amp;J2&amp;" &amp; "&amp;K2&amp;" \\ "</f>
+        <v xml:space="preserve">de  &amp;  790/790  &amp; 96.8 \pm 0.3 &amp; 93.4 \pm 0.4 &amp; 86.3 \pm 1 &amp; 89.8 \pm 0.6 &amp; 91.4 \\ </v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>94.5</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>94.2</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>93.5</v>
+      </c>
+      <c r="H3">
+        <v>0.7</v>
+      </c>
+      <c r="I3">
+        <v>94</v>
+      </c>
+      <c r="J3">
+        <v>0.4</v>
+      </c>
+      <c r="K3">
+        <v>94.8</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L13" si="0">A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" \pm "&amp;D3&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;G3&amp;" \pm "&amp;H3&amp;" &amp; "&amp;I3&amp;" \pm "&amp;J3&amp;" &amp; "&amp;K3&amp;" \\ "</f>
+        <v xml:space="preserve">en  &amp;  720/720  &amp; 94.5 \pm 0.1 &amp; 94.2 \pm 0.3 &amp; 93.5 \pm 0.7 &amp; 94 \pm 0.4 &amp; 94.8 \\ </v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>90.5</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>93</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>91.5</v>
+      </c>
+      <c r="H4">
+        <v>0.7</v>
+      </c>
+      <c r="I4">
+        <v>91.8</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>93</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">es  &amp;  740/740  &amp; 90.5 \pm 0.1 &amp; 93 \pm 0.2 &amp; 91.5 \pm 0.7 &amp; 91.8 \pm 0.5 &amp; 93 \\ </v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>87.4</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>84.9</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>86.4</v>
+      </c>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+      <c r="I5">
+        <v>86.1</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>86.8</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fr  &amp;  687/687  &amp; 87.4 \pm 0.1 &amp; 84.9 \pm 0.2 &amp; 86.4 \pm 0.3 &amp; 86.1 \pm 0.2 &amp; 86.8 \\ </v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>86.5</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <v>87.8</v>
+      </c>
+      <c r="F6">
+        <v>0.4</v>
+      </c>
+      <c r="G6">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="H6">
+        <v>0.9</v>
+      </c>
+      <c r="I6">
+        <v>82.1</v>
+      </c>
+      <c r="J6">
+        <v>0.7</v>
+      </c>
+      <c r="K6">
+        <v>83.4</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">kz  &amp;  792/792  &amp; 86.5 \pm 0.4 &amp; 87.8 \pm 0.4 &amp; 78.9 \pm 0.9 &amp; 82.1 \pm 0.7 &amp; 83.4 \\ </v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>99.6</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>98.8</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
+      <c r="I7">
+        <v>96.7</v>
+      </c>
+      <c r="J7">
+        <v>0.6</v>
+      </c>
+      <c r="K7">
+        <v>98.2</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ms  &amp;  728/728  &amp; 99.6 \pm 0.1 &amp; 98.8 \pm 0.3 &amp; 95 \pm 0.9 &amp; 96.7 \pm 0.6 &amp; 98.2 \\ </v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>92.4</v>
+      </c>
+      <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>88.7</v>
+      </c>
+      <c r="F8">
+        <v>0.7</v>
+      </c>
+      <c r="G8">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="H8">
+        <v>1.2</v>
+      </c>
+      <c r="I8">
+        <v>82.5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>85</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">pl  &amp;  791/791  &amp; 92.4 \pm 0.6 &amp; 88.7 \pm 0.7 &amp; 78.9 \pm 1.2 &amp; 82.5 \pm 1 &amp; 85 \\ </v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>94.2</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>85.9</v>
+      </c>
+      <c r="H9">
+        <v>0.8</v>
+      </c>
+      <c r="I9">
+        <v>88.7</v>
+      </c>
+      <c r="J9">
+        <v>0.6</v>
+      </c>
+      <c r="K9">
+        <v>90.5</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ru  &amp;  797/797  &amp; 94.2 \pm 0.3 &amp; 92 \pm 0.5 &amp; 85.9 \pm 0.8 &amp; 88.7 \pm 0.6 &amp; 90.5 \\ </v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>99.2</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>97.4</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>93.3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>94.8</v>
+      </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>96.6</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sl  &amp;  750/750  &amp; 99.2 \pm 0.1 &amp; 97.4 \pm 0.5 &amp; 93.3 \pm 1 &amp; 94.8 \pm 0.8 &amp; 96.6 \\ </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>97.4</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>95.1</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+      <c r="G11">
+        <v>87.2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>90.3</v>
+      </c>
+      <c r="J11">
+        <v>0.7</v>
+      </c>
+      <c r="K11">
+        <v>92.1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tr  &amp;  770/770  &amp; 97.4 \pm 0.3 &amp; 95.1 \pm 0.4 &amp; 87.2 \pm 1 &amp; 90.3 \pm 0.7 &amp; 92.1 \\ </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12">
+        <v>90.6</v>
+      </c>
+      <c r="D12">
+        <v>0.6</v>
+      </c>
+      <c r="E12">
+        <v>86.2</v>
+      </c>
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+      <c r="G12">
+        <v>78</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
+        <v>81.5</v>
+      </c>
+      <c r="J12">
+        <v>0.6</v>
+      </c>
+      <c r="K12">
+        <v>83.2</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tt  &amp;  773/773  &amp; 90.6 \pm 0.6 &amp; 86.2 \pm 0.6 &amp; 78 \pm 0.8 &amp; 81.5 \pm 0.6 &amp; 83.2 \\ </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>99.4</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>97.7</v>
+      </c>
+      <c r="F13">
+        <v>0.4</v>
+      </c>
+      <c r="G13">
+        <v>93.9</v>
+      </c>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13">
+        <v>95.5</v>
+      </c>
+      <c r="J13">
+        <v>0.6</v>
+      </c>
+      <c r="K13">
+        <v>96.5</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">uz  &amp;  761/761  &amp; 99.4 \pm 0.2 &amp; 97.7 \pm 0.4 &amp; 93.9 \pm 0.8 &amp; 95.5 \pm 0.6 &amp; 96.5 \\ </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C4BB8B-AF20-4DA6-9E59-498F3A628459}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B1" t="s">
@@ -7147,365 +7899,846 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2">
-        <v>87.307100000000005</v>
+        <v>73.2</v>
       </c>
       <c r="D2">
-        <v>46.59</v>
+        <v>2.1</v>
       </c>
       <c r="E2">
-        <v>71.182199999999995</v>
+        <v>52.9</v>
       </c>
       <c r="F2">
-        <v>110.4</v>
+        <v>2.6</v>
       </c>
       <c r="G2">
-        <v>78.558499999999995</v>
+        <v>61.4</v>
       </c>
       <c r="H2">
-        <v>155.25</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I2">
-        <v>84.756399999999999</v>
+        <v>67.7</v>
       </c>
       <c r="J2" t="str">
         <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;C2&amp;" \pm "&amp;D2&amp;" &amp; "&amp;E2&amp;" \pm "&amp;F2&amp;" &amp; "&amp;G2&amp;" \pm "&amp;H2&amp;" &amp; "&amp;I2&amp;" \\ "</f>
-        <v xml:space="preserve">en  &amp;  86/977  &amp; 87.3071 \pm 46.59 &amp; 71.1822 \pm 110.4 &amp; 78.5585 \pm 155.25 &amp; 84.7564 \\ </v>
+        <v xml:space="preserve">de  &amp;  79/790  &amp; 73.2 \pm 2.1 &amp; 52.9 \pm 2.6 &amp; 61.4 \pm 2.3 &amp; 67.7 \\ </v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>84.9</v>
+      </c>
+      <c r="D3">
+        <v>1.6</v>
+      </c>
+      <c r="E3">
+        <v>67.5</v>
+      </c>
+      <c r="F3">
+        <v>2.4</v>
+      </c>
+      <c r="G3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3">
-        <v>93.995000000000005</v>
-      </c>
-      <c r="D3">
-        <v>29.2</v>
-      </c>
-      <c r="E3">
-        <v>83.658600000000007</v>
-      </c>
-      <c r="F3">
-        <v>85.27</v>
-      </c>
-      <c r="G3">
-        <v>87.821799999999996</v>
-      </c>
-      <c r="H3">
-        <v>113.12</v>
-      </c>
       <c r="I3">
-        <v>92.444000000000003</v>
+        <v>79.7</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J12" si="0">A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" \pm "&amp;D3&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;G3&amp;" \pm "&amp;H3&amp;" &amp; "&amp;I3&amp;" \\ "</f>
-        <v xml:space="preserve">es  &amp;  143/971  &amp; 93.995 \pm 29.2 &amp; 83.6586 \pm 85.27 &amp; 87.8218 \pm 113.12 &amp; 92.444 \\ </v>
+        <f t="shared" ref="J3:J13" si="0">A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" \pm "&amp;D3&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;G3&amp;" \pm "&amp;H3&amp;" &amp; "&amp;I3&amp;" \\ "</f>
+        <v xml:space="preserve">en  &amp;  72/720  &amp; 84.9 \pm 1.6 &amp; 67.5 \pm 2.4 &amp; 75.4 \pm 2 &amp; 79.7 \\ </v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>81.325400000000002</v>
+        <v>86.7</v>
       </c>
       <c r="D4">
-        <v>45.5</v>
+        <v>1.6</v>
       </c>
       <c r="E4">
-        <v>63.070900000000002</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="F4">
-        <v>104.57</v>
+        <v>2.5</v>
       </c>
       <c r="G4">
-        <v>70.836399999999998</v>
+        <v>76.8</v>
       </c>
       <c r="H4">
-        <v>146.53</v>
+        <v>2.1</v>
       </c>
       <c r="I4">
-        <v>74.153499999999994</v>
+        <v>82.2</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">fr  &amp;  65/1076  &amp; 81.3254 \pm 45.5 &amp; 63.0709 \pm 104.57 &amp; 70.8364 \pm 146.53 &amp; 74.1535 \\ </v>
+        <v xml:space="preserve">es  &amp;  74/740  &amp; 86.7 \pm 1.6 &amp; 70.1 \pm 2.5 &amp; 76.8 \pm 2.1 &amp; 82.2 \\ </v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C5">
-        <v>56.299500000000002</v>
+        <v>86.1</v>
       </c>
       <c r="D5">
-        <v>64.36</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>37.883800000000001</v>
+        <v>75.8</v>
       </c>
       <c r="F5">
-        <v>111.26</v>
+        <v>1.7</v>
       </c>
       <c r="G5">
-        <v>45.820500000000003</v>
+        <v>80.2</v>
       </c>
       <c r="H5">
-        <v>172.22</v>
+        <v>1.3</v>
       </c>
       <c r="I5">
-        <v>49.136600000000001</v>
+        <v>82.8</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">kz  &amp;  42/1127  &amp; 56.2995 \pm 64.36 &amp; 37.8838 \pm 111.26 &amp; 45.8205 \pm 172.22 &amp; 49.1366 \\ </v>
+        <v xml:space="preserve">fr  &amp;  68/687  &amp; 86.1 \pm 0.9 &amp; 75.8 \pm 1.7 &amp; 80.2 \pm 1.3 &amp; 82.8 \\ </v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C6">
-        <v>89.880099999999999</v>
+        <v>64.5</v>
       </c>
       <c r="D6">
-        <v>42.17</v>
+        <v>1.4</v>
       </c>
       <c r="E6">
-        <v>75.545900000000003</v>
+        <v>43.3</v>
       </c>
       <c r="F6">
-        <v>96.4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>81.733800000000002</v>
+        <v>52.4</v>
       </c>
       <c r="H6">
-        <v>136.79</v>
+        <v>1.7</v>
       </c>
       <c r="I6">
-        <v>88.311199999999999</v>
+        <v>56.9</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ms  &amp;  105/986  &amp; 89.8801 \pm 42.17 &amp; 75.5459 \pm 96.4 &amp; 81.7338 \pm 136.79 &amp; 88.3112 \\ </v>
+        <v xml:space="preserve">kz  &amp;  79/792  &amp; 64.5 \pm 1.4 &amp; 43.3 \pm 2 &amp; 52.4 \pm 1.7 &amp; 56.9 \\ </v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C7">
-        <v>87.920900000000003</v>
+        <v>88.1</v>
       </c>
       <c r="D7">
-        <v>35.450000000000003</v>
+        <v>1.7</v>
       </c>
       <c r="E7">
-        <v>76.652799999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F7">
-        <v>73.27</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G7">
-        <v>81.496799999999993</v>
+        <v>79</v>
       </c>
       <c r="H7">
-        <v>106.37</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>84.271699999999996</v>
+        <v>85.8</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">pl  &amp;  67/1003  &amp; 87.9209 \pm 35.45 &amp; 76.6528 \pm 73.27 &amp; 81.4968 \pm 106.37 &amp; 84.2717 \\ </v>
+        <v xml:space="preserve">ms  &amp;  72/728  &amp; 88.1 \pm 1.7 &amp; 72.1 \pm 2.3 &amp; 79 \pm 2 &amp; 85.8 \\ </v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>86.175200000000004</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D8">
-        <v>44.17</v>
+        <v>1.6</v>
       </c>
       <c r="E8">
-        <v>74.173299999999998</v>
+        <v>45.9</v>
       </c>
       <c r="F8">
-        <v>89.86</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>79.480099999999993</v>
+        <v>54.5</v>
       </c>
       <c r="H8">
-        <v>132.18</v>
+        <v>1.8</v>
       </c>
       <c r="I8">
-        <v>81.948300000000003</v>
+        <v>58.3</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ru  &amp;  38/1023  &amp; 86.1752 \pm 44.17 &amp; 74.1733 \pm 89.86 &amp; 79.4801 \pm 132.18 &amp; 81.9483 \\ </v>
+        <v xml:space="preserve">pl  &amp;  79/791  &amp; 65.9 \pm 1.6 &amp; 45.9 \pm 2 &amp; 54.5 \pm 1.8 &amp; 58.3 \\ </v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>94.672899999999998</v>
+        <v>70.3</v>
       </c>
       <c r="D9">
-        <v>28.54</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E9">
-        <v>86.121899999999997</v>
+        <v>48.8</v>
       </c>
       <c r="F9">
-        <v>70.099999999999994</v>
+        <v>1.6</v>
       </c>
       <c r="G9">
-        <v>90.028499999999994</v>
+        <v>58.3</v>
       </c>
       <c r="H9">
-        <v>96.92</v>
+        <v>1.3</v>
       </c>
       <c r="I9">
-        <v>92.752200000000002</v>
+        <v>61.4</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sl  &amp;  84/974  &amp; 94.6729 \pm 28.54 &amp; 86.1219 \pm 70.1 &amp; 90.0285 \pm 96.92 &amp; 92.7522 \\ </v>
+        <v xml:space="preserve">ru  &amp;  79/797  &amp; 70.3 \pm 1.1 &amp; 48.8 \pm 1.6 &amp; 58.3 \pm 1.3 &amp; 61.4 \\ </v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C10">
-        <v>83.951099999999997</v>
+        <v>87.3</v>
       </c>
       <c r="D10">
-        <v>40.97</v>
+        <v>1.7</v>
       </c>
       <c r="E10">
-        <v>66.906000000000006</v>
+        <v>71.5</v>
       </c>
       <c r="F10">
-        <v>86.13</v>
+        <v>2.6</v>
       </c>
       <c r="G10">
-        <v>73.843599999999995</v>
+        <v>78.7</v>
       </c>
       <c r="H10">
-        <v>124.29</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I10">
-        <v>76.376499999999993</v>
+        <v>83.6</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">tr  &amp;  68/987  &amp; 83.9511 \pm 40.97 &amp; 66.906 \pm 86.13 &amp; 73.8436 \pm 124.29 &amp; 76.3765 \\ </v>
+        <v xml:space="preserve">sl  &amp;  75/750  &amp; 87.3 \pm 1.7 &amp; 71.5 \pm 2.6 &amp; 78.7 \pm 2.2 &amp; 83.6 \\ </v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C11">
-        <v>67.349599999999995</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="D11">
-        <v>53.05</v>
+        <v>1.3</v>
       </c>
       <c r="E11">
-        <v>47.501100000000001</v>
+        <v>49.7</v>
       </c>
       <c r="F11">
-        <v>92.8</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>56.039000000000001</v>
+        <v>59.3</v>
       </c>
       <c r="H11">
-        <v>141.77000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="I11">
-        <v>58.809899999999999</v>
+        <v>62.9</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">tt  &amp;  45/1094  &amp; 67.3496 \pm 53.05 &amp; 47.5011 \pm 92.8 &amp; 56.039 \pm 141.77 &amp; 58.8099 \\ </v>
+        <v xml:space="preserve">tr  &amp;  77/770  &amp; 73.4 \pm 1.3 &amp; 49.7 \pm 2 &amp; 59.3 \pm 1.7 &amp; 62.9 \\ </v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C12">
-        <v>92.181299999999993</v>
+        <v>63.7</v>
       </c>
       <c r="D12">
-        <v>44.72</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E12">
-        <v>78.878799999999998</v>
+        <v>43.3</v>
       </c>
       <c r="F12">
-        <v>121.42</v>
+        <v>1.8</v>
       </c>
       <c r="G12">
-        <v>84.815100000000001</v>
+        <v>52</v>
       </c>
       <c r="H12">
-        <v>163.19999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I12">
-        <v>88.656899999999993</v>
+        <v>54.7</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uz  &amp;  84/991  &amp; 92.1813 \pm 44.72 &amp; 78.8788 \pm 121.42 &amp; 84.8151 \pm 163.2 &amp; 88.6569 \\ </v>
+        <v xml:space="preserve">tt  &amp;  77/773  &amp; 63.7 \pm 1.1 &amp; 43.3 \pm 1.8 &amp; 52 \pm 1.4 &amp; 54.7 \\ </v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>84.9</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G13">
+        <v>74.7</v>
+      </c>
+      <c r="H13">
+        <v>1.9</v>
+      </c>
+      <c r="I13">
+        <v>77.8</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">uz  &amp;  76/761  &amp; 84.9 \pm 1.5 &amp; 66.4 \pm 2.3 &amp; 74.7 \pm 1.9 &amp; 77.8 \\ </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D6E65-58EE-4036-8E69-3C08E886D8A8}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="5">
+        <v>75.2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>76</v>
+      </c>
+      <c r="J2" s="5" t="str">
+        <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;C2&amp;" \pm "&amp;D2&amp;" &amp; "&amp;E2&amp;" \pm "&amp;F2&amp;" &amp; "&amp;G2&amp;" \pm "&amp;H2&amp;" &amp; "&amp;I2&amp;" \\ "</f>
+        <v xml:space="preserve">de  &amp;  77/996  &amp; 75.2 \pm 3.1 &amp; 58.5 \pm 3.8 &amp; 65.5 \pm 3.5 &amp; 76 \\ </v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>87.3</v>
+      </c>
+      <c r="D3">
+        <v>1.4</v>
+      </c>
+      <c r="E3">
+        <v>71.2</v>
+      </c>
+      <c r="F3">
+        <v>2.8</v>
+      </c>
+      <c r="G3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I3">
+        <v>84.8</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f t="shared" ref="J3:J13" si="0">A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" \pm "&amp;D3&amp;" &amp; "&amp;E3&amp;" \pm "&amp;F3&amp;" &amp; "&amp;G3&amp;" \pm "&amp;H3&amp;" &amp; "&amp;I3&amp;" \\ "</f>
+        <v xml:space="preserve">en  &amp;  86/977  &amp; 87.3 \pm 1.4 &amp; 71.2 \pm 2.8 &amp; 78.6 \pm 2.2 &amp; 84.8 \\ </v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>94</v>
+      </c>
+      <c r="D4">
+        <v>1.2</v>
+      </c>
+      <c r="E4">
+        <v>83.7</v>
+      </c>
+      <c r="F4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G4">
+        <v>87.8</v>
+      </c>
+      <c r="H4">
+        <v>1.8</v>
+      </c>
+      <c r="I4">
+        <v>92.4</v>
+      </c>
+      <c r="J4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">es  &amp;  143/971  &amp; 94 \pm 1.2 &amp; 83.7 \pm 2.3 &amp; 87.8 \pm 1.8 &amp; 92.4 \\ </v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5">
+        <v>90.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>84.7</v>
+      </c>
+      <c r="F5">
+        <v>1.9</v>
+      </c>
+      <c r="G5">
+        <v>87.2</v>
+      </c>
+      <c r="H5">
+        <v>1.5</v>
+      </c>
+      <c r="I5">
+        <v>90.3</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fr  &amp;  92/921  &amp; 90.5 \pm 1 &amp; 84.7 \pm 1.9 &amp; 87.2 \pm 1.5 &amp; 90.3 \\ </v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>80.7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F6">
+        <v>1.7</v>
+      </c>
+      <c r="G6">
+        <v>71.5</v>
+      </c>
+      <c r="H6">
+        <v>1.4</v>
+      </c>
+      <c r="I6">
+        <v>74</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">kz  &amp;  53/1014  &amp; 80.7 \pm 1 &amp; 64.4 \pm 1.7 &amp; 71.5 \pm 1.4 &amp; 74 \\ </v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>89.9</v>
+      </c>
+      <c r="D7">
+        <v>1.9</v>
+      </c>
+      <c r="E7">
+        <v>75.5</v>
+      </c>
+      <c r="F7">
+        <v>3.2</v>
+      </c>
+      <c r="G7">
+        <v>81.7</v>
+      </c>
+      <c r="H7">
+        <v>2.6</v>
+      </c>
+      <c r="I7">
+        <v>88.3</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ms  &amp;  105/986  &amp; 89.9 \pm 1.9 &amp; 75.5 \pm 3.2 &amp; 81.7 \pm 2.6 &amp; 88.3 \\ </v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="F8">
+        <v>1.3</v>
+      </c>
+      <c r="G8">
+        <v>81.5</v>
+      </c>
+      <c r="H8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I8">
+        <v>84.3</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">pl  &amp;  82/1003  &amp; 88 \pm 0.8 &amp; 76.6 \pm 1.3 &amp; 81.5 \pm 1.1 &amp; 84.3 \\ </v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>86.5</v>
+      </c>
+      <c r="D9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F9">
+        <v>1.8</v>
+      </c>
+      <c r="G9">
+        <v>79.8</v>
+      </c>
+      <c r="H9">
+        <v>1.4</v>
+      </c>
+      <c r="I9">
+        <v>83.2</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ru  &amp;  86/1023  &amp; 86.5 \pm 1.1 &amp; 74.6 \pm 1.8 &amp; 79.8 \pm 1.4 &amp; 83.2 \\ </v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>94.7</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>86.1</v>
+      </c>
+      <c r="F10">
+        <v>1.4</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I10">
+        <v>92.8</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sl  &amp;  84/974  &amp; 94.7 \pm 0.7 &amp; 86.1 \pm 1.4 &amp; 90 \pm 1.1 &amp; 92.8 \\ </v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>83.9</v>
+      </c>
+      <c r="D11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="F11">
+        <v>1.6</v>
+      </c>
+      <c r="G11">
+        <v>73.8</v>
+      </c>
+      <c r="H11">
+        <v>1.4</v>
+      </c>
+      <c r="I11">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tr  &amp;  82/987  &amp; 83.9 \pm 1.1 &amp; 66.9 \pm 1.6 &amp; 73.8 \pm 1.4 &amp; 76.4 \\ </v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12">
+        <v>80.5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>68.5</v>
+      </c>
+      <c r="F12">
+        <v>1.6</v>
+      </c>
+      <c r="G12">
+        <v>73.7</v>
+      </c>
+      <c r="H12">
+        <v>1.3</v>
+      </c>
+      <c r="I12">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">tt  &amp;  24/1001  &amp; 80.5 \pm 1 &amp; 68.5 \pm 1.6 &amp; 73.7 \pm 1.3 &amp; 75.4 \\ </v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>92.2</v>
+      </c>
+      <c r="D13">
+        <v>1.2</v>
+      </c>
+      <c r="E13">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="F13">
+        <v>2.6</v>
+      </c>
+      <c r="G13">
+        <v>84.8</v>
+      </c>
+      <c r="H13">
+        <v>1.9</v>
+      </c>
+      <c r="I13">
+        <v>88.7</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">uz  &amp;  84/991  &amp; 92.2 \pm 1.2 &amp; 78.9 \pm 2.6 &amp; 84.8 \pm 1.9 &amp; 88.7 \\ </v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="F16" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
